--- a/MyBlog/assets/iris.xlsx
+++ b/MyBlog/assets/iris.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="38115" windowHeight="12315"/>
+    <workbookView xWindow="240" yWindow="360" windowWidth="38115" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="iris - gradient descent" sheetId="1" r:id="rId1"/>
@@ -1487,23 +1487,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="47853952"/>
-        <c:axId val="47856256"/>
+        <c:axId val="78758656"/>
+        <c:axId val="141360512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47853952"/>
+        <c:axId val="78758656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47856256"/>
+        <c:crossAx val="141360512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47856256"/>
+        <c:axId val="141360512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,7 +1511,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47853952"/>
+        <c:crossAx val="78758656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1520,7 +1520,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1848,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2041,27 +2041,27 @@
         <v>0</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" ref="L6:L37" si="1">SUMPRODUCT($B6:$F6,$B$4:$F$4)</f>
+        <f>SUMPRODUCT($B6:$F6,$B$4:$F$4)</f>
         <v>-50.000000031319018</v>
       </c>
       <c r="M6" s="16">
-        <f t="shared" ref="M6:M37" si="2">EXP(L6)</f>
+        <f t="shared" ref="M6:M37" si="1">EXP(L6)</f>
         <v>1.9287497875573666E-22</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" ref="N6:N37" si="3">1/(1+EXP(-SUMPRODUCT($B6:$F6,$B$4:$F$4)))</f>
+        <f>1/(1+EXP(-SUMPRODUCT($B6:$F6,$B$4:$F$4)))</f>
         <v>1.9287497875573666E-22</v>
       </c>
       <c r="P6" s="16">
-        <f t="shared" ref="P6:P37" si="4">H6 *LN(N6+0.0001) + (1-H6)*LN(1-N6+0.0001)</f>
+        <f t="shared" ref="P6:P37" si="2">H6 *LN(N6+0.0001) + (1-H6)*LN(1-N6+0.0001)</f>
         <v>9.9995000333297321E-5</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:R37" si="5">IF(N6&gt;50%, 1, 0)</f>
+        <f t="shared" ref="R6:R37" si="3">IF(N6&gt;50%, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" ref="S6:S37" si="6">IF(R6=H6, 1, 0)</f>
+        <f t="shared" ref="S6:S37" si="4">IF(R6=H6, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -2101,27 +2101,27 @@
         <v>0</v>
       </c>
       <c r="L7" s="16">
+        <f>SUMPRODUCT($B7:$F7,$B$4:$F$4)</f>
+        <v>-48.267775791844556</v>
+      </c>
+      <c r="M7" s="16">
         <f t="shared" si="1"/>
-        <v>-48.267775791844556</v>
-      </c>
-      <c r="M7" s="16">
+        <v>1.0903635372304564E-21</v>
+      </c>
+      <c r="N7" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B7:$F7,$B$4:$F$4)))</f>
+        <v>1.0903635372304564E-21</v>
+      </c>
+      <c r="P7" s="16">
         <f t="shared" si="2"/>
-        <v>1.0903635372304564E-21</v>
-      </c>
-      <c r="N7" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="3"/>
-        <v>1.0903635372304564E-21</v>
-      </c>
-      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2161,27 +2161,27 @@
         <v>0</v>
       </c>
       <c r="L8" s="16">
+        <f>SUMPRODUCT($B8:$F8,$B$4:$F$4)</f>
+        <v>-47.967897479388085</v>
+      </c>
+      <c r="M8" s="16">
         <f t="shared" si="1"/>
-        <v>-47.967897479388085</v>
-      </c>
-      <c r="M8" s="16">
+        <v>1.4716577308795789E-21</v>
+      </c>
+      <c r="N8" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B8:$F8,$B$4:$F$4)))</f>
+        <v>1.4716577308795789E-21</v>
+      </c>
+      <c r="P8" s="16">
         <f t="shared" si="2"/>
-        <v>1.4716577308795789E-21</v>
-      </c>
-      <c r="N8" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="3"/>
-        <v>1.4716577308795789E-21</v>
-      </c>
-      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2221,27 +2221,27 @@
         <v>0</v>
       </c>
       <c r="L9" s="16">
+        <f>SUMPRODUCT($B9:$F9,$B$4:$F$4)</f>
+        <v>-47.302071832930338</v>
+      </c>
+      <c r="M9" s="16">
         <f t="shared" si="1"/>
-        <v>-47.302071832930338</v>
-      </c>
-      <c r="M9" s="16">
+        <v>2.8639881741279965E-21</v>
+      </c>
+      <c r="N9" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B9:$F9,$B$4:$F$4)))</f>
+        <v>2.8639881741279965E-21</v>
+      </c>
+      <c r="P9" s="16">
         <f t="shared" si="2"/>
-        <v>2.8639881741279965E-21</v>
-      </c>
-      <c r="N9" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="3"/>
-        <v>2.8639881741279965E-21</v>
-      </c>
-      <c r="P9" s="16">
+        <v>0</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2281,27 +2281,27 @@
         <v>0</v>
       </c>
       <c r="L10" s="16">
+        <f>SUMPRODUCT($B10:$F10,$B$4:$F$4)</f>
+        <v>-47.014609570877198</v>
+      </c>
+      <c r="M10" s="16">
         <f t="shared" si="1"/>
-        <v>-47.014609570877198</v>
-      </c>
-      <c r="M10" s="16">
+        <v>3.81781161190636E-21</v>
+      </c>
+      <c r="N10" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B10:$F10,$B$4:$F$4)))</f>
+        <v>3.81781161190636E-21</v>
+      </c>
+      <c r="P10" s="16">
         <f t="shared" si="2"/>
-        <v>3.81781161190636E-21</v>
-      </c>
-      <c r="N10" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="3"/>
-        <v>3.81781161190636E-21</v>
-      </c>
-      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2341,27 +2341,27 @@
         <v>0</v>
       </c>
       <c r="L11" s="16">
+        <f>SUMPRODUCT($B11:$F11,$B$4:$F$4)</f>
+        <v>-46.58111949510446</v>
+      </c>
+      <c r="M11" s="16">
         <f t="shared" si="1"/>
-        <v>-46.58111949510446</v>
-      </c>
-      <c r="M11" s="16">
+        <v>5.8894785231163491E-21</v>
+      </c>
+      <c r="N11" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B11:$F11,$B$4:$F$4)))</f>
+        <v>5.8894785231163483E-21</v>
+      </c>
+      <c r="P11" s="16">
         <f t="shared" si="2"/>
-        <v>5.8894785231163491E-21</v>
-      </c>
-      <c r="N11" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="3"/>
-        <v>5.8894785231163483E-21</v>
-      </c>
-      <c r="P11" s="16">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2401,27 +2401,27 @@
         <v>0</v>
       </c>
       <c r="L12" s="16">
+        <f>SUMPRODUCT($B12:$F12,$B$4:$F$4)</f>
+        <v>-46.436095875377035</v>
+      </c>
+      <c r="M12" s="16">
         <f t="shared" si="1"/>
-        <v>-46.436095875377035</v>
-      </c>
-      <c r="M12" s="16">
+        <v>6.808631037076177E-21</v>
+      </c>
+      <c r="N12" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B12:$F12,$B$4:$F$4)))</f>
+        <v>6.808631037076177E-21</v>
+      </c>
+      <c r="P12" s="16">
         <f t="shared" si="2"/>
-        <v>6.808631037076177E-21</v>
-      </c>
-      <c r="N12" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="3"/>
-        <v>6.808631037076177E-21</v>
-      </c>
-      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2461,27 +2461,27 @@
         <v>0</v>
       </c>
       <c r="L13" s="16">
+        <f>SUMPRODUCT($B13:$F13,$B$4:$F$4)</f>
+        <v>-45.581941432945356</v>
+      </c>
+      <c r="M13" s="16">
         <f t="shared" si="1"/>
-        <v>-45.581941432945356</v>
-      </c>
-      <c r="M13" s="16">
+        <v>1.5996109236177699E-20</v>
+      </c>
+      <c r="N13" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B13:$F13,$B$4:$F$4)))</f>
+        <v>1.5996109236177699E-20</v>
+      </c>
+      <c r="P13" s="16">
         <f t="shared" si="2"/>
-        <v>1.5996109236177699E-20</v>
-      </c>
-      <c r="N13" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="3"/>
-        <v>1.5996109236177699E-20</v>
-      </c>
-      <c r="P13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2521,27 +2521,27 @@
         <v>0</v>
       </c>
       <c r="L14" s="16">
+        <f>SUMPRODUCT($B14:$F14,$B$4:$F$4)</f>
+        <v>-44.96720616609899</v>
+      </c>
+      <c r="M14" s="16">
         <f t="shared" si="1"/>
-        <v>-44.96720616609899</v>
-      </c>
-      <c r="M14" s="16">
+        <v>2.9579477311030392E-20</v>
+      </c>
+      <c r="N14" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B14:$F14,$B$4:$F$4)))</f>
+        <v>2.9579477311030392E-20</v>
+      </c>
+      <c r="P14" s="16">
         <f t="shared" si="2"/>
-        <v>2.9579477311030392E-20</v>
-      </c>
-      <c r="N14" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="3"/>
-        <v>2.9579477311030392E-20</v>
-      </c>
-      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2581,27 +2581,27 @@
         <v>0</v>
       </c>
       <c r="L15" s="16">
+        <f>SUMPRODUCT($B15:$F15,$B$4:$F$4)</f>
+        <v>-44.822936801867527</v>
+      </c>
+      <c r="M15" s="16">
         <f t="shared" si="1"/>
-        <v>-44.822936801867527</v>
-      </c>
-      <c r="M15" s="16">
+        <v>3.4170071240431773E-20</v>
+      </c>
+      <c r="N15" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B15:$F15,$B$4:$F$4)))</f>
+        <v>3.4170071240431773E-20</v>
+      </c>
+      <c r="P15" s="16">
         <f t="shared" si="2"/>
-        <v>3.4170071240431773E-20</v>
-      </c>
-      <c r="N15" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="3"/>
-        <v>3.4170071240431773E-20</v>
-      </c>
-      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2641,27 +2641,27 @@
         <v>0</v>
       </c>
       <c r="L16" s="16">
+        <f>SUMPRODUCT($B16:$F16,$B$4:$F$4)</f>
+        <v>-44.648312899952359</v>
+      </c>
+      <c r="M16" s="16">
         <f t="shared" si="1"/>
-        <v>-44.648312899952359</v>
-      </c>
-      <c r="M16" s="16">
+        <v>4.0689661904491934E-20</v>
+      </c>
+      <c r="N16" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B16:$F16,$B$4:$F$4)))</f>
+        <v>4.0689661904491934E-20</v>
+      </c>
+      <c r="P16" s="16">
         <f t="shared" si="2"/>
-        <v>4.0689661904491934E-20</v>
-      </c>
-      <c r="N16" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="3"/>
-        <v>4.0689661904491934E-20</v>
-      </c>
-      <c r="P16" s="16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2701,27 +2701,27 @@
         <v>0</v>
       </c>
       <c r="L17" s="16">
+        <f>SUMPRODUCT($B17:$F17,$B$4:$F$4)</f>
+        <v>-44.52784905666374</v>
+      </c>
+      <c r="M17" s="16">
         <f t="shared" si="1"/>
-        <v>-44.52784905666374</v>
-      </c>
-      <c r="M17" s="16">
+        <v>4.5898750579747859E-20</v>
+      </c>
+      <c r="N17" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B17:$F17,$B$4:$F$4)))</f>
+        <v>4.5898750579747853E-20</v>
+      </c>
+      <c r="P17" s="16">
         <f t="shared" si="2"/>
-        <v>4.5898750579747859E-20</v>
-      </c>
-      <c r="N17" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="3"/>
-        <v>4.5898750579747853E-20</v>
-      </c>
-      <c r="P17" s="16">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2761,27 +2761,27 @@
         <v>0</v>
       </c>
       <c r="L18" s="16">
+        <f>SUMPRODUCT($B18:$F18,$B$4:$F$4)</f>
+        <v>-44.407385213375136</v>
+      </c>
+      <c r="M18" s="16">
         <f t="shared" si="1"/>
-        <v>-44.407385213375136</v>
-      </c>
-      <c r="M18" s="16">
+        <v>5.1774706551427644E-20</v>
+      </c>
+      <c r="N18" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B18:$F18,$B$4:$F$4)))</f>
+        <v>5.1774706551427644E-20</v>
+      </c>
+      <c r="P18" s="16">
         <f t="shared" si="2"/>
-        <v>5.1774706551427644E-20</v>
-      </c>
-      <c r="N18" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="3"/>
-        <v>5.1774706551427644E-20</v>
-      </c>
-      <c r="P18" s="16">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2821,27 +2821,27 @@
         <v>0</v>
       </c>
       <c r="L19" s="16">
+        <f>SUMPRODUCT($B19:$F19,$B$4:$F$4)</f>
+        <v>-44.056416521307284</v>
+      </c>
+      <c r="M19" s="16">
         <f t="shared" si="1"/>
-        <v>-44.056416521307284</v>
-      </c>
-      <c r="M19" s="16">
+        <v>7.3543011943454864E-20</v>
+      </c>
+      <c r="N19" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B19:$F19,$B$4:$F$4)))</f>
+        <v>7.3543011943454864E-20</v>
+      </c>
+      <c r="P19" s="16">
         <f t="shared" si="2"/>
-        <v>7.3543011943454864E-20</v>
-      </c>
-      <c r="N19" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="3"/>
-        <v>7.3543011943454864E-20</v>
-      </c>
-      <c r="P19" s="16">
+        <v>0</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2881,27 +2881,27 @@
         <v>0</v>
       </c>
       <c r="L20" s="16">
+        <f>SUMPRODUCT($B20:$F20,$B$4:$F$4)</f>
+        <v>-43.969426781263564</v>
+      </c>
+      <c r="M20" s="16">
         <f t="shared" si="1"/>
-        <v>-43.969426781263564</v>
-      </c>
-      <c r="M20" s="16">
+        <v>8.0227004415816113E-20</v>
+      </c>
+      <c r="N20" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B20:$F20,$B$4:$F$4)))</f>
+        <v>8.0227004415816101E-20</v>
+      </c>
+      <c r="P20" s="16">
         <f t="shared" si="2"/>
-        <v>8.0227004415816113E-20</v>
-      </c>
-      <c r="N20" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="3"/>
-        <v>8.0227004415816101E-20</v>
-      </c>
-      <c r="P20" s="16">
+        <v>0</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2941,27 +2941,27 @@
         <v>0</v>
       </c>
       <c r="L21" s="16">
+        <f>SUMPRODUCT($B21:$F21,$B$4:$F$4)</f>
+        <v>-43.93627488893253</v>
+      </c>
+      <c r="M21" s="16">
         <f t="shared" si="1"/>
-        <v>-43.93627488893253</v>
-      </c>
-      <c r="M21" s="16">
+        <v>8.2931259341361556E-20</v>
+      </c>
+      <c r="N21" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B21:$F21,$B$4:$F$4)))</f>
+        <v>8.2931259341361556E-20</v>
+      </c>
+      <c r="P21" s="16">
         <f t="shared" si="2"/>
-        <v>8.2931259341361556E-20</v>
-      </c>
-      <c r="N21" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="3"/>
-        <v>8.2931259341361556E-20</v>
-      </c>
-      <c r="P21" s="16">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3001,27 +3001,27 @@
         <v>0</v>
       </c>
       <c r="L22" s="16">
+        <f>SUMPRODUCT($B22:$F22,$B$4:$F$4)</f>
+        <v>-43.761328776103511</v>
+      </c>
+      <c r="M22" s="16">
         <f t="shared" si="1"/>
-        <v>-43.761328776103511</v>
-      </c>
-      <c r="M22" s="16">
+        <v>9.8786225475640858E-20</v>
+      </c>
+      <c r="N22" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B22:$F22,$B$4:$F$4)))</f>
+        <v>9.8786225475640846E-20</v>
+      </c>
+      <c r="P22" s="16">
         <f t="shared" si="2"/>
-        <v>9.8786225475640858E-20</v>
-      </c>
-      <c r="N22" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="3"/>
-        <v>9.8786225475640846E-20</v>
-      </c>
-      <c r="P22" s="16">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3061,27 +3061,27 @@
         <v>0</v>
       </c>
       <c r="L23" s="16">
+        <f>SUMPRODUCT($B23:$F23,$B$4:$F$4)</f>
+        <v>-43.631518561426745</v>
+      </c>
+      <c r="M23" s="16">
         <f t="shared" si="1"/>
-        <v>-43.631518561426745</v>
-      </c>
-      <c r="M23" s="16">
+        <v>1.1247920852442616E-19</v>
+      </c>
+      <c r="N23" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B23:$F23,$B$4:$F$4)))</f>
+        <v>1.1247920852442616E-19</v>
+      </c>
+      <c r="P23" s="16">
         <f t="shared" si="2"/>
-        <v>1.1247920852442616E-19</v>
-      </c>
-      <c r="N23" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="3"/>
-        <v>1.1247920852442616E-19</v>
-      </c>
-      <c r="P23" s="16">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3121,27 +3121,27 @@
         <v>0</v>
       </c>
       <c r="L24" s="16">
+        <f>SUMPRODUCT($B24:$F24,$B$4:$F$4)</f>
+        <v>-43.496917779497295</v>
+      </c>
+      <c r="M24" s="16">
         <f t="shared" si="1"/>
-        <v>-43.496917779497295</v>
-      </c>
-      <c r="M24" s="16">
+        <v>1.2868520791454408E-19</v>
+      </c>
+      <c r="N24" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B24:$F24,$B$4:$F$4)))</f>
+        <v>1.2868520791454408E-19</v>
+      </c>
+      <c r="P24" s="16">
         <f t="shared" si="2"/>
-        <v>1.2868520791454408E-19</v>
-      </c>
-      <c r="N24" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="3"/>
-        <v>1.2868520791454408E-19</v>
-      </c>
-      <c r="P24" s="16">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3181,27 +3181,27 @@
         <v>0</v>
       </c>
       <c r="L25" s="16">
+        <f>SUMPRODUCT($B25:$F25,$B$4:$F$4)</f>
+        <v>-43.464842353576074</v>
+      </c>
+      <c r="M25" s="16">
         <f t="shared" si="1"/>
-        <v>-43.464842353576074</v>
-      </c>
-      <c r="M25" s="16">
+        <v>1.3287975204533358E-19</v>
+      </c>
+      <c r="N25" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B25:$F25,$B$4:$F$4)))</f>
+        <v>1.3287975204533355E-19</v>
+      </c>
+      <c r="P25" s="16">
         <f t="shared" si="2"/>
-        <v>1.3287975204533358E-19</v>
-      </c>
-      <c r="N25" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="3"/>
-        <v>1.3287975204533355E-19</v>
-      </c>
-      <c r="P25" s="16">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3229,39 +3229,39 @@
         <v>5</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" ref="H26:J45" si="7">IF($G26=H$2, 1, 0)</f>
+        <f t="shared" ref="H26:J45" si="5">IF($G26=H$2, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L26" s="16">
+        <f>SUMPRODUCT($B26:$F26,$B$4:$F$4)</f>
+        <v>-43.289141985251092</v>
+      </c>
+      <c r="M26" s="16">
         <f t="shared" si="1"/>
-        <v>-43.289141985251092</v>
-      </c>
-      <c r="M26" s="16">
+        <v>1.5840340377434745E-19</v>
+      </c>
+      <c r="N26" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B26:$F26,$B$4:$F$4)))</f>
+        <v>1.5840340377434743E-19</v>
+      </c>
+      <c r="P26" s="16">
         <f t="shared" si="2"/>
-        <v>1.5840340377434745E-19</v>
-      </c>
-      <c r="N26" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="3"/>
-        <v>1.5840340377434743E-19</v>
-      </c>
-      <c r="P26" s="16">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3289,39 +3289,39 @@
         <v>5</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L27" s="16">
+        <f>SUMPRODUCT($B27:$F27,$B$4:$F$4)</f>
+        <v>-43.17802451335065</v>
+      </c>
+      <c r="M27" s="16">
         <f t="shared" si="1"/>
-        <v>-43.17802451335065</v>
-      </c>
-      <c r="M27" s="16">
+        <v>1.770199502544801E-19</v>
+      </c>
+      <c r="N27" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B27:$F27,$B$4:$F$4)))</f>
+        <v>1.770199502544801E-19</v>
+      </c>
+      <c r="P27" s="16">
         <f t="shared" si="2"/>
-        <v>1.770199502544801E-19</v>
-      </c>
-      <c r="N27" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="3"/>
-        <v>1.770199502544801E-19</v>
-      </c>
-      <c r="P27" s="16">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3349,39 +3349,39 @@
         <v>5</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L28" s="16">
+        <f>SUMPRODUCT($B28:$F28,$B$4:$F$4)</f>
+        <v>-42.674084507490875</v>
+      </c>
+      <c r="M28" s="16">
         <f t="shared" si="1"/>
-        <v>-42.674084507490875</v>
-      </c>
-      <c r="M28" s="16">
+        <v>2.9300874218595295E-19</v>
+      </c>
+      <c r="N28" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B28:$F28,$B$4:$F$4)))</f>
+        <v>2.9300874218595295E-19</v>
+      </c>
+      <c r="P28" s="16">
         <f t="shared" si="2"/>
-        <v>2.9300874218595295E-19</v>
-      </c>
-      <c r="N28" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="3"/>
-        <v>2.9300874218595295E-19</v>
-      </c>
-      <c r="P28" s="16">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3409,39 +3409,39 @@
         <v>5</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L29" s="16">
+        <f>SUMPRODUCT($B29:$F29,$B$4:$F$4)</f>
+        <v>-42.674084507490875</v>
+      </c>
+      <c r="M29" s="16">
         <f t="shared" si="1"/>
-        <v>-42.674084507490875</v>
-      </c>
-      <c r="M29" s="16">
+        <v>2.9300874218595295E-19</v>
+      </c>
+      <c r="N29" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B29:$F29,$B$4:$F$4)))</f>
+        <v>2.9300874218595295E-19</v>
+      </c>
+      <c r="P29" s="16">
         <f t="shared" si="2"/>
-        <v>2.9300874218595295E-19</v>
-      </c>
-      <c r="N29" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="3"/>
-        <v>2.9300874218595295E-19</v>
-      </c>
-      <c r="P29" s="16">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3469,39 +3469,39 @@
         <v>5</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L30" s="16">
+        <f>SUMPRODUCT($B30:$F30,$B$4:$F$4)</f>
+        <v>-42.388020922761399</v>
+      </c>
+      <c r="M30" s="16">
         <f t="shared" si="1"/>
-        <v>-42.388020922761399</v>
-      </c>
-      <c r="M30" s="16">
+        <v>3.9004652626107536E-19</v>
+      </c>
+      <c r="N30" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B30:$F30,$B$4:$F$4)))</f>
+        <v>3.9004652626107541E-19</v>
+      </c>
+      <c r="P30" s="16">
         <f t="shared" si="2"/>
-        <v>3.9004652626107536E-19</v>
-      </c>
-      <c r="N30" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="3"/>
-        <v>3.9004652626107541E-19</v>
-      </c>
-      <c r="P30" s="16">
+        <v>0</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3529,39 +3529,39 @@
         <v>5</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L31" s="16">
+        <f>SUMPRODUCT($B31:$F31,$B$4:$F$4)</f>
+        <v>-42.369328179985089</v>
+      </c>
+      <c r="M31" s="16">
         <f t="shared" si="1"/>
-        <v>-42.369328179985089</v>
-      </c>
-      <c r="M31" s="16">
+        <v>3.9740613700503985E-19</v>
+      </c>
+      <c r="N31" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B31:$F31,$B$4:$F$4)))</f>
+        <v>3.9740613700503985E-19</v>
+      </c>
+      <c r="P31" s="16">
         <f t="shared" si="2"/>
-        <v>3.9740613700503985E-19</v>
-      </c>
-      <c r="N31" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="3"/>
-        <v>3.9740613700503985E-19</v>
-      </c>
-      <c r="P31" s="16">
+        <v>0</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3589,39 +3589,39 @@
         <v>5</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L32" s="16">
+        <f>SUMPRODUCT($B32:$F32,$B$4:$F$4)</f>
+        <v>-42.314523699530824</v>
+      </c>
+      <c r="M32" s="16">
         <f t="shared" si="1"/>
-        <v>-42.314523699530824</v>
-      </c>
-      <c r="M32" s="16">
+        <v>4.1979363838120396E-19</v>
+      </c>
+      <c r="N32" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B32:$F32,$B$4:$F$4)))</f>
+        <v>4.1979363838120401E-19</v>
+      </c>
+      <c r="P32" s="16">
         <f t="shared" si="2"/>
-        <v>4.1979363838120396E-19</v>
-      </c>
-      <c r="N32" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="3"/>
-        <v>4.1979363838120401E-19</v>
-      </c>
-      <c r="P32" s="16">
+        <v>0</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3649,39 +3649,39 @@
         <v>5</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L33" s="16">
+        <f>SUMPRODUCT($B33:$F33,$B$4:$F$4)</f>
+        <v>-42.082188128845814</v>
+      </c>
+      <c r="M33" s="16">
         <f t="shared" si="1"/>
-        <v>-42.082188128845814</v>
-      </c>
-      <c r="M33" s="16">
+        <v>5.2958772369988766E-19</v>
+      </c>
+      <c r="N33" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B33:$F33,$B$4:$F$4)))</f>
+        <v>5.2958772369988757E-19</v>
+      </c>
+      <c r="P33" s="16">
         <f t="shared" si="2"/>
-        <v>5.2958772369988766E-19</v>
-      </c>
-      <c r="N33" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="3"/>
-        <v>5.2958772369988757E-19</v>
-      </c>
-      <c r="P33" s="16">
+        <v>0</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3709,39 +3709,39 @@
         <v>5</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L34" s="16">
+        <f>SUMPRODUCT($B34:$F34,$B$4:$F$4)</f>
+        <v>-42.059781285226606</v>
+      </c>
+      <c r="M34" s="16">
         <f t="shared" si="1"/>
-        <v>-42.059781285226606</v>
-      </c>
-      <c r="M34" s="16">
+        <v>5.4158805571254594E-19</v>
+      </c>
+      <c r="N34" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B34:$F34,$B$4:$F$4)))</f>
+        <v>5.4158805571254594E-19</v>
+      </c>
+      <c r="P34" s="16">
         <f t="shared" si="2"/>
-        <v>5.4158805571254594E-19</v>
-      </c>
-      <c r="N34" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="3"/>
-        <v>5.4158805571254594E-19</v>
-      </c>
-      <c r="P34" s="16">
+        <v>0</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3769,39 +3769,39 @@
         <v>5</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L35" s="16">
+        <f>SUMPRODUCT($B35:$F35,$B$4:$F$4)</f>
+        <v>-41.953132169665004</v>
+      </c>
+      <c r="M35" s="16">
         <f t="shared" si="1"/>
-        <v>-41.953132169665004</v>
-      </c>
-      <c r="M35" s="16">
+        <v>6.0254043985880299E-19</v>
+      </c>
+      <c r="N35" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B35:$F35,$B$4:$F$4)))</f>
+        <v>6.0254043985880299E-19</v>
+      </c>
+      <c r="P35" s="16">
         <f t="shared" si="2"/>
-        <v>6.0254043985880299E-19</v>
-      </c>
-      <c r="N35" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="3"/>
-        <v>6.0254043985880299E-19</v>
-      </c>
-      <c r="P35" s="16">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3829,39 +3829,39 @@
         <v>5</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L36" s="16">
+        <f>SUMPRODUCT($B36:$F36,$B$4:$F$4)</f>
+        <v>-41.620424175791356</v>
+      </c>
+      <c r="M36" s="16">
         <f t="shared" si="1"/>
-        <v>-41.620424175791356</v>
-      </c>
-      <c r="M36" s="16">
+        <v>8.4038723283494035E-19</v>
+      </c>
+      <c r="N36" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B36:$F36,$B$4:$F$4)))</f>
+        <v>8.4038723283494044E-19</v>
+      </c>
+      <c r="P36" s="16">
         <f t="shared" si="2"/>
-        <v>8.4038723283494035E-19</v>
-      </c>
-      <c r="N36" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="3"/>
-        <v>8.4038723283494044E-19</v>
-      </c>
-      <c r="P36" s="16">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3889,39 +3889,39 @@
         <v>5</v>
       </c>
       <c r="H37" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L37" s="16">
+        <f>SUMPRODUCT($B37:$F37,$B$4:$F$4)</f>
+        <v>-40.821074213813958</v>
+      </c>
+      <c r="M37" s="16">
         <f t="shared" si="1"/>
-        <v>-40.821074213813958</v>
-      </c>
-      <c r="M37" s="16">
+        <v>1.8691008008887171E-18</v>
+      </c>
+      <c r="N37" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B37:$F37,$B$4:$F$4)))</f>
+        <v>1.8691008008887171E-18</v>
+      </c>
+      <c r="P37" s="16">
         <f t="shared" si="2"/>
-        <v>1.8691008008887171E-18</v>
-      </c>
-      <c r="N37" s="2">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="3"/>
-        <v>1.8691008008887171E-18</v>
-      </c>
-      <c r="P37" s="16">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="4"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3949,39 +3949,39 @@
         <v>5</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L38" s="16">
-        <f t="shared" ref="L38:L69" si="8">SUMPRODUCT($B38:$F38,$B$4:$F$4)</f>
+        <f>SUMPRODUCT($B38:$F38,$B$4:$F$4)</f>
         <v>-40.755846895561717</v>
       </c>
       <c r="M38" s="16">
-        <f t="shared" ref="M38:M69" si="9">EXP(L38)</f>
+        <f t="shared" ref="M38:M69" si="6">EXP(L38)</f>
         <v>1.9950812539932549E-18</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" ref="N38:N69" si="10">1/(1+EXP(-SUMPRODUCT($B38:$F38,$B$4:$F$4)))</f>
+        <f>1/(1+EXP(-SUMPRODUCT($B38:$F38,$B$4:$F$4)))</f>
         <v>1.9950812539932549E-18</v>
       </c>
       <c r="P38" s="16">
-        <f t="shared" ref="P38:P69" si="11">H38 *LN(N38+0.0001) + (1-H38)*LN(1-N38+0.0001)</f>
+        <f t="shared" ref="P38:P69" si="7">H38 *LN(N38+0.0001) + (1-H38)*LN(1-N38+0.0001)</f>
         <v>9.9995000333297321E-5</v>
       </c>
       <c r="R38">
-        <f t="shared" ref="R38:R69" si="12">IF(N38&gt;50%, 1, 0)</f>
+        <f t="shared" ref="R38:R69" si="8">IF(N38&gt;50%, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S38">
-        <f t="shared" ref="S38:S69" si="13">IF(R38=H38, 1, 0)</f>
+        <f t="shared" ref="S38:S69" si="9">IF(R38=H38, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -4009,39 +4009,39 @@
         <v>5</v>
       </c>
       <c r="H39" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="16">
+        <f>SUMPRODUCT($B39:$F39,$B$4:$F$4)</f>
+        <v>-40.635705263186964</v>
+      </c>
+      <c r="M39" s="16">
+        <f t="shared" si="6"/>
+        <v>2.2497664497235552E-18</v>
+      </c>
+      <c r="N39" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B39:$F39,$B$4:$F$4)))</f>
+        <v>2.2497664497235552E-18</v>
+      </c>
+      <c r="P39" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="16">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="8"/>
-        <v>-40.635705263186964</v>
-      </c>
-      <c r="M39" s="16">
+        <v>0</v>
+      </c>
+      <c r="S39">
         <f t="shared" si="9"/>
-        <v>2.2497664497235552E-18</v>
-      </c>
-      <c r="N39" s="2">
-        <f t="shared" si="10"/>
-        <v>2.2497664497235552E-18</v>
-      </c>
-      <c r="P39" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4069,39 +4069,39 @@
         <v>5</v>
       </c>
       <c r="H40" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <f>SUMPRODUCT($B40:$F40,$B$4:$F$4)</f>
+        <v>-40.613298419567769</v>
+      </c>
+      <c r="M40" s="16">
+        <f t="shared" si="6"/>
+        <v>2.3007456230302693E-18</v>
+      </c>
+      <c r="N40" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B40:$F40,$B$4:$F$4)))</f>
+        <v>2.3007456230302693E-18</v>
+      </c>
+      <c r="P40" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="16">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="8"/>
-        <v>-40.613298419567769</v>
-      </c>
-      <c r="M40" s="16">
+        <v>0</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="9"/>
-        <v>2.3007456230302693E-18</v>
-      </c>
-      <c r="N40" s="2">
-        <f t="shared" si="10"/>
-        <v>2.3007456230302693E-18</v>
-      </c>
-      <c r="P40" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4129,39 +4129,39 @@
         <v>5</v>
       </c>
       <c r="H41" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="16">
+        <f>SUMPRODUCT($B41:$F41,$B$4:$F$4)</f>
+        <v>-40.492834576279165</v>
+      </c>
+      <c r="M41" s="16">
+        <f t="shared" si="6"/>
+        <v>2.5952869735507328E-18</v>
+      </c>
+      <c r="N41" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B41:$F41,$B$4:$F$4)))</f>
+        <v>2.5952869735507328E-18</v>
+      </c>
+      <c r="P41" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="16">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="8"/>
-        <v>-40.492834576279165</v>
-      </c>
-      <c r="M41" s="16">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="9"/>
-        <v>2.5952869735507328E-18</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" si="10"/>
-        <v>2.5952869735507328E-18</v>
-      </c>
-      <c r="P41" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4189,39 +4189,39 @@
         <v>5</v>
       </c>
       <c r="H42" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="16">
+        <f>SUMPRODUCT($B42:$F42,$B$4:$F$4)</f>
+        <v>-40.044885350951716</v>
+      </c>
+      <c r="M42" s="16">
+        <f t="shared" si="6"/>
+        <v>4.0618816341628042E-18</v>
+      </c>
+      <c r="N42" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B42:$F42,$B$4:$F$4)))</f>
+        <v>4.0618816341628042E-18</v>
+      </c>
+      <c r="P42" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="16">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R42">
         <f t="shared" si="8"/>
-        <v>-40.044885350951716</v>
-      </c>
-      <c r="M42" s="16">
+        <v>0</v>
+      </c>
+      <c r="S42">
         <f t="shared" si="9"/>
-        <v>4.0618816341628042E-18</v>
-      </c>
-      <c r="N42" s="2">
-        <f t="shared" si="10"/>
-        <v>4.0618816341628042E-18</v>
-      </c>
-      <c r="P42" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4249,39 +4249,39 @@
         <v>5</v>
       </c>
       <c r="H43" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <f>SUMPRODUCT($B43:$F43,$B$4:$F$4)</f>
+        <v>-39.278687281305331</v>
+      </c>
+      <c r="M43" s="16">
+        <f t="shared" si="6"/>
+        <v>8.7394249524396484E-18</v>
+      </c>
+      <c r="N43" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B43:$F43,$B$4:$F$4)))</f>
+        <v>8.7394249524396484E-18</v>
+      </c>
+      <c r="P43" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="16">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R43">
         <f t="shared" si="8"/>
-        <v>-39.278687281305331</v>
-      </c>
-      <c r="M43" s="16">
+        <v>0</v>
+      </c>
+      <c r="S43">
         <f t="shared" si="9"/>
-        <v>8.7394249524396484E-18</v>
-      </c>
-      <c r="N43" s="2">
-        <f t="shared" si="10"/>
-        <v>8.7394249524396484E-18</v>
-      </c>
-      <c r="P43" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4309,39 +4309,39 @@
         <v>5</v>
       </c>
       <c r="H44" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="16">
+        <f>SUMPRODUCT($B44:$F44,$B$4:$F$4)</f>
+        <v>-39.079503602951348</v>
+      </c>
+      <c r="M44" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0665647587988933E-17</v>
+      </c>
+      <c r="N44" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B44:$F44,$B$4:$F$4)))</f>
+        <v>1.0665647587988931E-17</v>
+      </c>
+      <c r="P44" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="16">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R44">
         <f t="shared" si="8"/>
-        <v>-39.079503602951348</v>
-      </c>
-      <c r="M44" s="16">
+        <v>0</v>
+      </c>
+      <c r="S44">
         <f t="shared" si="9"/>
-        <v>1.0665647587988933E-17</v>
-      </c>
-      <c r="N44" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0665647587988931E-17</v>
-      </c>
-      <c r="P44" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4369,39 +4369,39 @@
         <v>5</v>
       </c>
       <c r="H45" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
+        <f>SUMPRODUCT($B45:$F45,$B$4:$F$4)</f>
+        <v>-38.302670318261391</v>
+      </c>
+      <c r="M45" s="16">
+        <f t="shared" si="6"/>
+        <v>2.3193251567137566E-17</v>
+      </c>
+      <c r="N45" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B45:$F45,$B$4:$F$4)))</f>
+        <v>2.3193251567137566E-17</v>
+      </c>
+      <c r="P45" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="16">
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R45">
         <f t="shared" si="8"/>
-        <v>-38.302670318261391</v>
-      </c>
-      <c r="M45" s="16">
+        <v>0</v>
+      </c>
+      <c r="S45">
         <f t="shared" si="9"/>
-        <v>2.3193251567137566E-17</v>
-      </c>
-      <c r="N45" s="2">
-        <f t="shared" si="10"/>
-        <v>2.3193251567137566E-17</v>
-      </c>
-      <c r="P45" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4429,39 +4429,39 @@
         <v>5</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" ref="H46:J65" si="14">IF($G46=H$2, 1, 0)</f>
+        <f t="shared" ref="H46:J65" si="10">IF($G46=H$2, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L46" s="16">
+        <f>SUMPRODUCT($B46:$F46,$B$4:$F$4)</f>
+        <v>-38.134163388504945</v>
+      </c>
+      <c r="M46" s="16">
+        <f t="shared" si="6"/>
+        <v>2.7450058123579215E-17</v>
+      </c>
+      <c r="N46" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B46:$F46,$B$4:$F$4)))</f>
+        <v>2.7450058123579215E-17</v>
+      </c>
+      <c r="P46" s="16">
+        <f t="shared" si="7"/>
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R46">
         <f t="shared" si="8"/>
-        <v>-38.134163388504945</v>
-      </c>
-      <c r="M46" s="16">
+        <v>0</v>
+      </c>
+      <c r="S46">
         <f t="shared" si="9"/>
-        <v>2.7450058123579215E-17</v>
-      </c>
-      <c r="N46" s="2">
-        <f t="shared" si="10"/>
-        <v>2.7450058123579215E-17</v>
-      </c>
-      <c r="P46" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4489,39 +4489,39 @@
         <v>5</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L47" s="16">
+        <f>SUMPRODUCT($B47:$F47,$B$4:$F$4)</f>
+        <v>-38.006506106647805</v>
+      </c>
+      <c r="M47" s="16">
+        <f t="shared" si="6"/>
+        <v>3.1187755543103584E-17</v>
+      </c>
+      <c r="N47" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B47:$F47,$B$4:$F$4)))</f>
+        <v>3.1187755543103584E-17</v>
+      </c>
+      <c r="P47" s="16">
+        <f t="shared" si="7"/>
+        <v>9.9995000333297321E-5</v>
+      </c>
+      <c r="R47">
         <f t="shared" si="8"/>
-        <v>-38.006506106647805</v>
-      </c>
-      <c r="M47" s="16">
+        <v>0</v>
+      </c>
+      <c r="S47">
         <f t="shared" si="9"/>
-        <v>3.1187755543103584E-17</v>
-      </c>
-      <c r="N47" s="2">
-        <f t="shared" si="10"/>
-        <v>3.1187755543103584E-17</v>
-      </c>
-      <c r="P47" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9995000333297321E-5</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4549,39 +4549,39 @@
         <v>6</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L48" s="16">
+        <f>SUMPRODUCT($B48:$F48,$B$4:$F$4)</f>
+        <v>-17.444265827182445</v>
+      </c>
+      <c r="M48" s="16">
+        <f t="shared" si="6"/>
+        <v>2.6549210469857841E-8</v>
+      </c>
+      <c r="N48" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B48:$F48,$B$4:$F$4)))</f>
+        <v>2.6549209764997282E-8</v>
+      </c>
+      <c r="P48" s="16">
+        <f t="shared" si="7"/>
+        <v>9.9968453777880901E-5</v>
+      </c>
+      <c r="R48">
         <f t="shared" si="8"/>
-        <v>-17.444265827182445</v>
-      </c>
-      <c r="M48" s="16">
+        <v>0</v>
+      </c>
+      <c r="S48">
         <f t="shared" si="9"/>
-        <v>2.6549210469857841E-8</v>
-      </c>
-      <c r="N48" s="2">
-        <f t="shared" si="10"/>
-        <v>2.6549209764997282E-8</v>
-      </c>
-      <c r="P48" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9968453777880901E-5</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4609,39 +4609,39 @@
         <v>6</v>
       </c>
       <c r="H49" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L49" s="16">
+        <f>SUMPRODUCT($B49:$F49,$B$4:$F$4)</f>
+        <v>-15.032079002609393</v>
+      </c>
+      <c r="M49" s="16">
+        <f t="shared" si="6"/>
+        <v>2.9624500582632062E-7</v>
+      </c>
+      <c r="N49" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B49:$F49,$B$4:$F$4)))</f>
+        <v>2.9624491806524315E-7</v>
+      </c>
+      <c r="P49" s="16">
+        <f t="shared" si="7"/>
+        <v>9.9698784993025192E-5</v>
+      </c>
+      <c r="R49">
         <f t="shared" si="8"/>
-        <v>-15.032079002609393</v>
-      </c>
-      <c r="M49" s="16">
+        <v>0</v>
+      </c>
+      <c r="S49">
         <f t="shared" si="9"/>
-        <v>2.9624500582632062E-7</v>
-      </c>
-      <c r="N49" s="2">
-        <f t="shared" si="10"/>
-        <v>2.9624491806524315E-7</v>
-      </c>
-      <c r="P49" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9698784993025192E-5</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4669,39 +4669,39 @@
         <v>6</v>
       </c>
       <c r="H50" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L50" s="16">
+        <f>SUMPRODUCT($B50:$F50,$B$4:$F$4)</f>
+        <v>-14.911615159320785</v>
+      </c>
+      <c r="M50" s="16">
+        <f t="shared" si="6"/>
+        <v>3.341702780631123E-7</v>
+      </c>
+      <c r="N50" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B50:$F50,$B$4:$F$4)))</f>
+        <v>3.3417016639337486E-7</v>
+      </c>
+      <c r="P50" s="16">
+        <f t="shared" si="7"/>
+        <v>9.9660863524721676E-5</v>
+      </c>
+      <c r="R50">
         <f t="shared" si="8"/>
-        <v>-14.911615159320785</v>
-      </c>
-      <c r="M50" s="16">
+        <v>0</v>
+      </c>
+      <c r="S50">
         <f t="shared" si="9"/>
-        <v>3.341702780631123E-7</v>
-      </c>
-      <c r="N50" s="2">
-        <f t="shared" si="10"/>
-        <v>3.3417016639337486E-7</v>
-      </c>
-      <c r="P50" s="16">
-        <f t="shared" si="11"/>
-        <v>9.9660863524721676E-5</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4729,39 +4729,39 @@
         <v>6</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L51" s="16">
+        <f>SUMPRODUCT($B51:$F51,$B$4:$F$4)</f>
+        <v>-13.040666378363504</v>
+      </c>
+      <c r="M51" s="16">
+        <f t="shared" si="6"/>
+        <v>2.1702539310012359E-6</v>
+      </c>
+      <c r="N51" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B51:$F51,$B$4:$F$4)))</f>
+        <v>2.1702492210093327E-6</v>
+      </c>
+      <c r="P51" s="16">
+        <f t="shared" si="7"/>
+        <v>9.7824965760995051E-5</v>
+      </c>
+      <c r="R51">
         <f t="shared" si="8"/>
-        <v>-13.040666378363504</v>
-      </c>
-      <c r="M51" s="16">
+        <v>0</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="9"/>
-        <v>2.1702539310012359E-6</v>
-      </c>
-      <c r="N51" s="2">
-        <f t="shared" si="10"/>
-        <v>2.1702492210093327E-6</v>
-      </c>
-      <c r="P51" s="16">
-        <f t="shared" si="11"/>
-        <v>9.7824965760995051E-5</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4789,39 +4789,39 @@
         <v>6</v>
       </c>
       <c r="H52" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L52" s="16">
+        <f>SUMPRODUCT($B52:$F52,$B$4:$F$4)</f>
+        <v>-12.050402643010463</v>
+      </c>
+      <c r="M52" s="16">
+        <f t="shared" si="6"/>
+        <v>5.8422027851128434E-6</v>
+      </c>
+      <c r="N52" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B52:$F52,$B$4:$F$4)))</f>
+        <v>5.842168653978862E-6</v>
+      </c>
+      <c r="P52" s="16">
+        <f t="shared" si="7"/>
+        <v>9.4153398775667901E-5</v>
+      </c>
+      <c r="R52">
         <f t="shared" si="8"/>
-        <v>-12.050402643010463</v>
-      </c>
-      <c r="M52" s="16">
+        <v>0</v>
+      </c>
+      <c r="S52">
         <f t="shared" si="9"/>
-        <v>5.8422027851128434E-6</v>
-      </c>
-      <c r="N52" s="2">
-        <f t="shared" si="10"/>
-        <v>5.842168653978862E-6</v>
-      </c>
-      <c r="P52" s="16">
-        <f t="shared" si="11"/>
-        <v>9.4153398775667901E-5</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4849,39 +4849,39 @@
         <v>6</v>
       </c>
       <c r="H53" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L53" s="16">
+        <f>SUMPRODUCT($B53:$F53,$B$4:$F$4)</f>
+        <v>-11.714215311411179</v>
+      </c>
+      <c r="M53" s="16">
+        <f t="shared" si="6"/>
+        <v>8.1767539690004917E-6</v>
+      </c>
+      <c r="N53" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B53:$F53,$B$4:$F$4)))</f>
+        <v>8.1766871102417111E-6</v>
+      </c>
+      <c r="P53" s="16">
+        <f t="shared" si="7"/>
+        <v>9.181909738736229E-5</v>
+      </c>
+      <c r="R53">
         <f t="shared" si="8"/>
-        <v>-11.714215311411179</v>
-      </c>
-      <c r="M53" s="16">
+        <v>0</v>
+      </c>
+      <c r="S53">
         <f t="shared" si="9"/>
-        <v>8.1767539690004917E-6</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" si="10"/>
-        <v>8.1766871102417111E-6</v>
-      </c>
-      <c r="P53" s="16">
-        <f t="shared" si="11"/>
-        <v>9.181909738736229E-5</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4909,39 +4909,39 @@
         <v>6</v>
       </c>
       <c r="H54" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L54" s="16">
+        <f>SUMPRODUCT($B54:$F54,$B$4:$F$4)</f>
+        <v>-11.176801202306523</v>
+      </c>
+      <c r="M54" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3995129212097716E-5</v>
+      </c>
+      <c r="N54" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B54:$F54,$B$4:$F$4)))</f>
+        <v>1.3994933351197152E-5</v>
+      </c>
+      <c r="P54" s="16">
+        <f t="shared" si="7"/>
+        <v>8.600136842520654E-5</v>
+      </c>
+      <c r="R54">
         <f t="shared" si="8"/>
-        <v>-11.176801202306523</v>
-      </c>
-      <c r="M54" s="16">
+        <v>0</v>
+      </c>
+      <c r="S54">
         <f t="shared" si="9"/>
-        <v>1.3995129212097716E-5</v>
-      </c>
-      <c r="N54" s="2">
-        <f t="shared" si="10"/>
-        <v>1.3994933351197152E-5</v>
-      </c>
-      <c r="P54" s="16">
-        <f t="shared" si="11"/>
-        <v>8.600136842520654E-5</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -4969,39 +4969,39 @@
         <v>6</v>
       </c>
       <c r="H55" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L55" s="16">
+        <f>SUMPRODUCT($B55:$F55,$B$4:$F$4)</f>
+        <v>-11.066760196815883</v>
+      </c>
+      <c r="M55" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5623096452303812E-5</v>
+      </c>
+      <c r="N55" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B55:$F55,$B$4:$F$4)))</f>
+        <v>1.5622852374974297E-5</v>
+      </c>
+      <c r="P55" s="16">
+        <f t="shared" si="7"/>
+        <v>8.4373588073810948E-5</v>
+      </c>
+      <c r="R55">
         <f t="shared" si="8"/>
-        <v>-11.066760196815883</v>
-      </c>
-      <c r="M55" s="16">
+        <v>0</v>
+      </c>
+      <c r="S55">
         <f t="shared" si="9"/>
-        <v>1.5623096452303812E-5</v>
-      </c>
-      <c r="N55" s="2">
-        <f t="shared" si="10"/>
-        <v>1.5622852374974297E-5</v>
-      </c>
-      <c r="P55" s="16">
-        <f t="shared" si="11"/>
-        <v>8.4373588073810948E-5</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5029,39 +5029,39 @@
         <v>6</v>
       </c>
       <c r="H56" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L56" s="16">
+        <f>SUMPRODUCT($B56:$F56,$B$4:$F$4)</f>
+        <v>-10.55390586415005</v>
+      </c>
+      <c r="M56" s="16">
+        <f t="shared" si="6"/>
+        <v>2.6091372230910874E-5</v>
+      </c>
+      <c r="N56" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B56:$F56,$B$4:$F$4)))</f>
+        <v>2.6090691488967471E-5</v>
+      </c>
+      <c r="P56" s="16">
+        <f t="shared" si="7"/>
+        <v>7.3906577352773087E-5</v>
+      </c>
+      <c r="R56">
         <f t="shared" si="8"/>
-        <v>-10.55390586415005</v>
-      </c>
-      <c r="M56" s="16">
+        <v>0</v>
+      </c>
+      <c r="S56">
         <f t="shared" si="9"/>
-        <v>2.6091372230910874E-5</v>
-      </c>
-      <c r="N56" s="2">
-        <f t="shared" si="10"/>
-        <v>2.6090691488967471E-5</v>
-      </c>
-      <c r="P56" s="16">
-        <f t="shared" si="11"/>
-        <v>7.3906577352773087E-5</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5089,39 +5089,39 @@
         <v>6</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J57">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L57" s="16">
+        <f>SUMPRODUCT($B57:$F57,$B$4:$F$4)</f>
+        <v>-10.059312229678435</v>
+      </c>
+      <c r="M57" s="16">
+        <f t="shared" si="6"/>
+        <v>4.2785460130155119E-5</v>
+      </c>
+      <c r="N57" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B57:$F57,$B$4:$F$4)))</f>
+        <v>4.2783629612876097E-5</v>
+      </c>
+      <c r="P57" s="16">
+        <f t="shared" si="7"/>
+        <v>5.7214733593050291E-5</v>
+      </c>
+      <c r="R57">
         <f t="shared" si="8"/>
-        <v>-10.059312229678435</v>
-      </c>
-      <c r="M57" s="16">
+        <v>0</v>
+      </c>
+      <c r="S57">
         <f t="shared" si="9"/>
-        <v>4.2785460130155119E-5</v>
-      </c>
-      <c r="N57" s="2">
-        <f t="shared" si="10"/>
-        <v>4.2783629612876097E-5</v>
-      </c>
-      <c r="P57" s="16">
-        <f t="shared" si="11"/>
-        <v>5.7214733593050291E-5</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5149,39 +5149,39 @@
         <v>6</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J58">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L58" s="16">
+        <f>SUMPRODUCT($B58:$F58,$B$4:$F$4)</f>
+        <v>-9.6213537975668544</v>
+      </c>
+      <c r="M58" s="16">
+        <f t="shared" si="6"/>
+        <v>6.6297803066931333E-5</v>
+      </c>
+      <c r="N58" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B58:$F58,$B$4:$F$4)))</f>
+        <v>6.6293407959625795E-5</v>
+      </c>
+      <c r="P58" s="16">
+        <f t="shared" si="7"/>
+        <v>3.3706023985974657E-5</v>
+      </c>
+      <c r="R58">
         <f t="shared" si="8"/>
-        <v>-9.6213537975668544</v>
-      </c>
-      <c r="M58" s="16">
+        <v>0</v>
+      </c>
+      <c r="S58">
         <f t="shared" si="9"/>
-        <v>6.6297803066931333E-5</v>
-      </c>
-      <c r="N58" s="2">
-        <f t="shared" si="10"/>
-        <v>6.6293407959625795E-5</v>
-      </c>
-      <c r="P58" s="16">
-        <f t="shared" si="11"/>
-        <v>3.3706023985974657E-5</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5209,39 +5209,39 @@
         <v>6</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J59">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L59" s="16">
+        <f>SUMPRODUCT($B59:$F59,$B$4:$F$4)</f>
+        <v>-9.1629817344414377</v>
+      </c>
+      <c r="M59" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0484979723863509E-4</v>
+      </c>
+      <c r="N59" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B59:$F59,$B$4:$F$4)))</f>
+        <v>1.0483880491119742E-4</v>
+      </c>
+      <c r="P59" s="16">
+        <f t="shared" si="7"/>
+        <v>-4.8388166182545064E-6</v>
+      </c>
+      <c r="R59">
         <f t="shared" si="8"/>
-        <v>-9.1629817344414377</v>
-      </c>
-      <c r="M59" s="16">
+        <v>0</v>
+      </c>
+      <c r="S59">
         <f t="shared" si="9"/>
-        <v>1.0484979723863509E-4</v>
-      </c>
-      <c r="N59" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0483880491119742E-4</v>
-      </c>
-      <c r="P59" s="16">
-        <f t="shared" si="11"/>
-        <v>-4.8388166182545064E-6</v>
-      </c>
-      <c r="R59">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5269,39 +5269,39 @@
         <v>6</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L60" s="16">
+        <f>SUMPRODUCT($B60:$F60,$B$4:$F$4)</f>
+        <v>-9.1499212622103983</v>
+      </c>
+      <c r="M60" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0622816658820986E-4</v>
+      </c>
+      <c r="N60" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B60:$F60,$B$4:$F$4)))</f>
+        <v>1.0621688336342944E-4</v>
+      </c>
+      <c r="P60" s="16">
+        <f t="shared" si="7"/>
+        <v>-6.2169026883407547E-6</v>
+      </c>
+      <c r="R60">
         <f t="shared" si="8"/>
-        <v>-9.1499212622103983</v>
-      </c>
-      <c r="M60" s="16">
+        <v>0</v>
+      </c>
+      <c r="S60">
         <f t="shared" si="9"/>
-        <v>1.0622816658820986E-4</v>
-      </c>
-      <c r="N60" s="2">
-        <f t="shared" si="10"/>
-        <v>1.0621688336342944E-4</v>
-      </c>
-      <c r="P60" s="16">
-        <f t="shared" si="11"/>
-        <v>-6.2169026883407547E-6</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5329,39 +5329,39 @@
         <v>6</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L61" s="16">
+        <f>SUMPRODUCT($B61:$F61,$B$4:$F$4)</f>
+        <v>-8.8026666709854258</v>
+      </c>
+      <c r="M61" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5033165504305815E-4</v>
+      </c>
+      <c r="N61" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B61:$F61,$B$4:$F$4)))</f>
+        <v>1.5030905883347574E-4</v>
+      </c>
+      <c r="P61" s="16">
+        <f t="shared" si="7"/>
+        <v>-5.0310324376665832E-5</v>
+      </c>
+      <c r="R61">
         <f t="shared" si="8"/>
-        <v>-8.8026666709854258</v>
-      </c>
-      <c r="M61" s="16">
+        <v>0</v>
+      </c>
+      <c r="S61">
         <f t="shared" si="9"/>
-        <v>1.5033165504305815E-4</v>
-      </c>
-      <c r="N61" s="2">
-        <f t="shared" si="10"/>
-        <v>1.5030905883347574E-4</v>
-      </c>
-      <c r="P61" s="16">
-        <f t="shared" si="11"/>
-        <v>-5.0310324376665832E-5</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5389,39 +5389,39 @@
         <v>6</v>
       </c>
       <c r="H62" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L62" s="16">
+        <f>SUMPRODUCT($B62:$F62,$B$4:$F$4)</f>
+        <v>-8.6456590454367692</v>
+      </c>
+      <c r="M62" s="16">
+        <f t="shared" si="6"/>
+        <v>1.7588871827370868E-4</v>
+      </c>
+      <c r="N62" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B62:$F62,$B$4:$F$4)))</f>
+        <v>1.7585778687297714E-4</v>
+      </c>
+      <c r="P62" s="16">
+        <f t="shared" si="7"/>
+        <v>-7.5860664220452059E-5</v>
+      </c>
+      <c r="R62">
         <f t="shared" si="8"/>
-        <v>-8.6456590454367692</v>
-      </c>
-      <c r="M62" s="16">
+        <v>0</v>
+      </c>
+      <c r="S62">
         <f t="shared" si="9"/>
-        <v>1.7588871827370868E-4</v>
-      </c>
-      <c r="N62" s="2">
-        <f t="shared" si="10"/>
-        <v>1.7585778687297714E-4</v>
-      </c>
-      <c r="P62" s="16">
-        <f t="shared" si="11"/>
-        <v>-7.5860664220452059E-5</v>
-      </c>
-      <c r="R62">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5449,39 +5449,39 @@
         <v>6</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L63" s="16">
+        <f>SUMPRODUCT($B63:$F63,$B$4:$F$4)</f>
+        <v>-8.6363126740486074</v>
+      </c>
+      <c r="M63" s="16">
+        <f t="shared" si="6"/>
+        <v>1.7754034589716807E-4</v>
+      </c>
+      <c r="N63" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B63:$F63,$B$4:$F$4)))</f>
+        <v>1.775088309179271E-4</v>
+      </c>
+      <c r="P63" s="16">
+        <f t="shared" si="7"/>
+        <v>-7.7511834882608126E-5</v>
+      </c>
+      <c r="R63">
         <f t="shared" si="8"/>
-        <v>-8.6363126740486074</v>
-      </c>
-      <c r="M63" s="16">
+        <v>0</v>
+      </c>
+      <c r="S63">
         <f t="shared" si="9"/>
-        <v>1.7754034589716807E-4</v>
-      </c>
-      <c r="N63" s="2">
-        <f t="shared" si="10"/>
-        <v>1.775088309179271E-4</v>
-      </c>
-      <c r="P63" s="16">
-        <f t="shared" si="11"/>
-        <v>-7.7511834882608126E-5</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5509,39 +5509,39 @@
         <v>6</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L64" s="16">
+        <f>SUMPRODUCT($B64:$F64,$B$4:$F$4)</f>
+        <v>-8.1745487209941565</v>
+      </c>
+      <c r="M64" s="16">
+        <f t="shared" si="6"/>
+        <v>2.8173356996022419E-4</v>
+      </c>
+      <c r="N64" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B64:$F64,$B$4:$F$4)))</f>
+        <v>2.8165421851174851E-4</v>
+      </c>
+      <c r="P64" s="16">
+        <f t="shared" si="7"/>
+        <v>-1.8167071963770987E-4</v>
+      </c>
+      <c r="R64">
         <f t="shared" si="8"/>
-        <v>-8.1745487209941565</v>
-      </c>
-      <c r="M64" s="16">
+        <v>0</v>
+      </c>
+      <c r="S64">
         <f t="shared" si="9"/>
-        <v>2.8173356996022419E-4</v>
-      </c>
-      <c r="N64" s="2">
-        <f t="shared" si="10"/>
-        <v>2.8165421851174851E-4</v>
-      </c>
-      <c r="P64" s="16">
-        <f t="shared" si="11"/>
-        <v>-1.8167071963770987E-4</v>
-      </c>
-      <c r="R64">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5569,39 +5569,39 @@
         <v>6</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L65" s="16">
+        <f>SUMPRODUCT($B65:$F65,$B$4:$F$4)</f>
+        <v>-8.1555337673039876</v>
+      </c>
+      <c r="M65" s="16">
+        <f t="shared" si="6"/>
+        <v>2.8714197810300005E-4</v>
+      </c>
+      <c r="N65" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B65:$F65,$B$4:$F$4)))</f>
+        <v>2.870595512556191E-4</v>
+      </c>
+      <c r="P65" s="16">
+        <f t="shared" si="7"/>
+        <v>-1.8707704907562324E-4</v>
+      </c>
+      <c r="R65">
         <f t="shared" si="8"/>
-        <v>-8.1555337673039876</v>
-      </c>
-      <c r="M65" s="16">
+        <v>0</v>
+      </c>
+      <c r="S65">
         <f t="shared" si="9"/>
-        <v>2.8714197810300005E-4</v>
-      </c>
-      <c r="N65" s="2">
-        <f t="shared" si="10"/>
-        <v>2.870595512556191E-4</v>
-      </c>
-      <c r="P65" s="16">
-        <f t="shared" si="11"/>
-        <v>-1.8707704907562324E-4</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5629,39 +5629,39 @@
         <v>6</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" ref="H66:J85" si="15">IF($G66=H$2, 1, 0)</f>
+        <f t="shared" ref="H66:J85" si="11">IF($G66=H$2, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L66" s="16">
+        <f>SUMPRODUCT($B66:$F66,$B$4:$F$4)</f>
+        <v>-7.8225035625164976</v>
+      </c>
+      <c r="M66" s="16">
+        <f t="shared" si="6"/>
+        <v>4.0061745541003578E-4</v>
+      </c>
+      <c r="N66" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B66:$F66,$B$4:$F$4)))</f>
+        <v>4.0045702533554476E-4</v>
+      </c>
+      <c r="P66" s="16">
+        <f t="shared" si="7"/>
+        <v>-3.0050217159081276E-4</v>
+      </c>
+      <c r="R66">
         <f t="shared" si="8"/>
-        <v>-7.8225035625164976</v>
-      </c>
-      <c r="M66" s="16">
+        <v>0</v>
+      </c>
+      <c r="S66">
         <f t="shared" si="9"/>
-        <v>4.0061745541003578E-4</v>
-      </c>
-      <c r="N66" s="2">
-        <f t="shared" si="10"/>
-        <v>4.0045702533554476E-4</v>
-      </c>
-      <c r="P66" s="16">
-        <f t="shared" si="11"/>
-        <v>-3.0050217159081276E-4</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5689,39 +5689,39 @@
         <v>6</v>
       </c>
       <c r="H67" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L67" s="16">
+        <f>SUMPRODUCT($B67:$F67,$B$4:$F$4)</f>
+        <v>-7.5919987137372544</v>
+      </c>
+      <c r="M67" s="16">
+        <f t="shared" si="6"/>
+        <v>5.0447175102754413E-4</v>
+      </c>
+      <c r="N67" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B67:$F67,$B$4:$F$4)))</f>
+        <v>5.0421738759912342E-4</v>
+      </c>
+      <c r="P67" s="16">
+        <f t="shared" si="7"/>
+        <v>-4.0429910546925394E-4</v>
+      </c>
+      <c r="R67">
         <f t="shared" si="8"/>
-        <v>-7.5919987137372544</v>
-      </c>
-      <c r="M67" s="16">
+        <v>0</v>
+      </c>
+      <c r="S67">
         <f t="shared" si="9"/>
-        <v>5.0447175102754413E-4</v>
-      </c>
-      <c r="N67" s="2">
-        <f t="shared" si="10"/>
-        <v>5.0421738759912342E-4</v>
-      </c>
-      <c r="P67" s="16">
-        <f t="shared" si="11"/>
-        <v>-4.0429910546925394E-4</v>
-      </c>
-      <c r="R67">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5749,39 +5749,39 @@
         <v>6</v>
       </c>
       <c r="H68" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L68" s="16">
+        <f>SUMPRODUCT($B68:$F68,$B$4:$F$4)</f>
+        <v>-7.4117425412768121</v>
+      </c>
+      <c r="M68" s="16">
+        <f t="shared" si="6"/>
+        <v>6.0411707787217587E-4</v>
+      </c>
+      <c r="N68" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B68:$F68,$B$4:$F$4)))</f>
+        <v>6.0375234077231004E-4</v>
+      </c>
+      <c r="P68" s="16">
+        <f t="shared" si="7"/>
+        <v>-5.0387926661059985E-4</v>
+      </c>
+      <c r="R68">
         <f t="shared" si="8"/>
-        <v>-7.4117425412768121</v>
-      </c>
-      <c r="M68" s="16">
+        <v>0</v>
+      </c>
+      <c r="S68">
         <f t="shared" si="9"/>
-        <v>6.0411707787217587E-4</v>
-      </c>
-      <c r="N68" s="2">
-        <f t="shared" si="10"/>
-        <v>6.0375234077231004E-4</v>
-      </c>
-      <c r="P68" s="16">
-        <f t="shared" si="11"/>
-        <v>-5.0387926661059985E-4</v>
-      </c>
-      <c r="R68">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5809,39 +5809,39 @@
         <v>6</v>
       </c>
       <c r="H69" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L69" s="16">
+        <f>SUMPRODUCT($B69:$F69,$B$4:$F$4)</f>
+        <v>-7.1436174438276998</v>
+      </c>
+      <c r="M69" s="16">
+        <f t="shared" si="6"/>
+        <v>7.898895409766464E-4</v>
+      </c>
+      <c r="N69" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B69:$F69,$B$4:$F$4)))</f>
+        <v>7.892661079329428E-4</v>
+      </c>
+      <c r="P69" s="16">
+        <f t="shared" si="7"/>
+        <v>-6.8950376102715834E-4</v>
+      </c>
+      <c r="R69">
         <f t="shared" si="8"/>
-        <v>-7.1436174438276998</v>
-      </c>
-      <c r="M69" s="16">
+        <v>0</v>
+      </c>
+      <c r="S69">
         <f t="shared" si="9"/>
-        <v>7.898895409766464E-4</v>
-      </c>
-      <c r="N69" s="2">
-        <f t="shared" si="10"/>
-        <v>7.892661079329428E-4</v>
-      </c>
-      <c r="P69" s="16">
-        <f t="shared" si="11"/>
-        <v>-6.8950376102715834E-4</v>
-      </c>
-      <c r="R69">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -5869,39 +5869,39 @@
         <v>6</v>
       </c>
       <c r="H70" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L70" s="16">
-        <f t="shared" ref="L70:L101" si="16">SUMPRODUCT($B70:$F70,$B$4:$F$4)</f>
+        <f>SUMPRODUCT($B70:$F70,$B$4:$F$4)</f>
         <v>-7.1249247010513868</v>
       </c>
       <c r="M70" s="16">
-        <f t="shared" ref="M70:M101" si="17">EXP(L70)</f>
+        <f t="shared" ref="M70:M101" si="12">EXP(L70)</f>
         <v>8.0479360795563792E-4</v>
       </c>
       <c r="N70" s="2">
-        <f t="shared" ref="N70:N101" si="18">1/(1+EXP(-SUMPRODUCT($B70:$F70,$B$4:$F$4)))</f>
+        <f>1/(1+EXP(-SUMPRODUCT($B70:$F70,$B$4:$F$4)))</f>
         <v>8.0414643604404922E-4</v>
       </c>
       <c r="P70" s="16">
-        <f t="shared" ref="P70:P101" si="19">H70 *LN(N70+0.0001) + (1-H70)*LN(1-N70+0.0001)</f>
+        <f t="shared" ref="P70:P101" si="13">H70 *LN(N70+0.0001) + (1-H70)*LN(1-N70+0.0001)</f>
         <v>-7.0439446358444352E-4</v>
       </c>
       <c r="R70">
-        <f t="shared" ref="R70:R101" si="20">IF(N70&gt;50%, 1, 0)</f>
+        <f t="shared" ref="R70:R101" si="14">IF(N70&gt;50%, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S70">
-        <f t="shared" ref="S70:S101" si="21">IF(R70=H70, 1, 0)</f>
+        <f t="shared" ref="S70:S101" si="15">IF(R70=H70, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -5929,39 +5929,39 @@
         <v>6</v>
       </c>
       <c r="H71" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="16">
+        <f>SUMPRODUCT($B71:$F71,$B$4:$F$4)</f>
+        <v>-7.0549068155464534</v>
+      </c>
+      <c r="M71" s="16">
+        <f t="shared" si="12"/>
+        <v>8.6316316672453849E-4</v>
+      </c>
+      <c r="N71" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B71:$F71,$B$4:$F$4)))</f>
+        <v>8.6241875861780724E-4</v>
+      </c>
+      <c r="P71" s="16">
+        <f t="shared" si="13"/>
+        <v>-7.6270954761095146E-4</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S71">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="16">
-        <f t="shared" si="16"/>
-        <v>-7.0549068155464534</v>
-      </c>
-      <c r="M71" s="16">
-        <f t="shared" si="17"/>
-        <v>8.6316316672453849E-4</v>
-      </c>
-      <c r="N71" s="2">
-        <f t="shared" si="18"/>
-        <v>8.6241875861780724E-4</v>
-      </c>
-      <c r="P71" s="16">
-        <f t="shared" si="19"/>
-        <v>-7.6270954761095146E-4</v>
-      </c>
-      <c r="R71">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -5989,39 +5989,39 @@
         <v>6</v>
       </c>
       <c r="H72" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="16">
+        <f>SUMPRODUCT($B72:$F72,$B$4:$F$4)</f>
+        <v>-6.9590027486966664</v>
+      </c>
+      <c r="M72" s="16">
+        <f t="shared" si="12"/>
+        <v>9.5004353443683823E-4</v>
+      </c>
+      <c r="N72" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B72:$F72,$B$4:$F$4)))</f>
+        <v>9.491418083985055E-4</v>
+      </c>
+      <c r="P72" s="16">
+        <f t="shared" si="13"/>
+        <v>-8.4950253352293257E-4</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S72">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="16">
-        <f t="shared" si="16"/>
-        <v>-6.9590027486966664</v>
-      </c>
-      <c r="M72" s="16">
-        <f t="shared" si="17"/>
-        <v>9.5004353443683823E-4</v>
-      </c>
-      <c r="N72" s="2">
-        <f t="shared" si="18"/>
-        <v>9.491418083985055E-4</v>
-      </c>
-      <c r="P72" s="16">
-        <f t="shared" si="19"/>
-        <v>-8.4950253352293257E-4</v>
-      </c>
-      <c r="R72">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6049,39 +6049,39 @@
         <v>6</v>
       </c>
       <c r="H73" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="16">
+        <f>SUMPRODUCT($B73:$F73,$B$4:$F$4)</f>
+        <v>-6.478546052865906</v>
+      </c>
+      <c r="M73" s="16">
+        <f t="shared" si="12"/>
+        <v>1.5360423809608651E-3</v>
+      </c>
+      <c r="N73" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B73:$F73,$B$4:$F$4)))</f>
+        <v>1.533686573385035E-3</v>
+      </c>
+      <c r="P73" s="16">
+        <f t="shared" si="13"/>
+        <v>-1.4347152853316347E-3</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S73">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="16">
-        <f t="shared" si="16"/>
-        <v>-6.478546052865906</v>
-      </c>
-      <c r="M73" s="16">
-        <f t="shared" si="17"/>
-        <v>1.5360423809608651E-3</v>
-      </c>
-      <c r="N73" s="2">
-        <f t="shared" si="18"/>
-        <v>1.533686573385035E-3</v>
-      </c>
-      <c r="P73" s="16">
-        <f t="shared" si="19"/>
-        <v>-1.4347152853316347E-3</v>
-      </c>
-      <c r="R73">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6109,39 +6109,39 @@
         <v>6</v>
       </c>
       <c r="H74" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="16">
+        <f>SUMPRODUCT($B74:$F74,$B$4:$F$4)</f>
+        <v>-5.8496738473786838</v>
+      </c>
+      <c r="M74" s="16">
+        <f t="shared" si="12"/>
+        <v>2.8808385979398362E-3</v>
+      </c>
+      <c r="N74" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B74:$F74,$B$4:$F$4)))</f>
+        <v>2.8725632069781515E-3</v>
+      </c>
+      <c r="P74" s="16">
+        <f t="shared" si="13"/>
+        <v>-2.7764138794820212E-3</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S74">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="16">
-        <f t="shared" si="16"/>
-        <v>-5.8496738473786838</v>
-      </c>
-      <c r="M74" s="16">
-        <f t="shared" si="17"/>
-        <v>2.8808385979398362E-3</v>
-      </c>
-      <c r="N74" s="2">
-        <f t="shared" si="18"/>
-        <v>2.8725632069781515E-3</v>
-      </c>
-      <c r="P74" s="16">
-        <f t="shared" si="19"/>
-        <v>-2.7764138794820212E-3</v>
-      </c>
-      <c r="R74">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6169,39 +6169,39 @@
         <v>6</v>
       </c>
       <c r="H75" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="16">
+        <f>SUMPRODUCT($B75:$F75,$B$4:$F$4)</f>
+        <v>-5.7419482654072578</v>
+      </c>
+      <c r="M75" s="16">
+        <f t="shared" si="12"/>
+        <v>3.2085111507326194E-3</v>
+      </c>
+      <c r="N75" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B75:$F75,$B$4:$F$4)))</f>
+        <v>3.1982495314481427E-3</v>
+      </c>
+      <c r="P75" s="16">
+        <f t="shared" si="13"/>
+        <v>-3.1030590431416574E-3</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S75">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="16">
-        <f t="shared" si="16"/>
-        <v>-5.7419482654072578</v>
-      </c>
-      <c r="M75" s="16">
-        <f t="shared" si="17"/>
-        <v>3.2085111507326194E-3</v>
-      </c>
-      <c r="N75" s="2">
-        <f t="shared" si="18"/>
-        <v>3.1982495314481427E-3</v>
-      </c>
-      <c r="P75" s="16">
-        <f t="shared" si="19"/>
-        <v>-3.1030590431416574E-3</v>
-      </c>
-      <c r="R75">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6229,39 +6229,39 @@
         <v>6</v>
       </c>
       <c r="H76" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="16">
+        <f>SUMPRODUCT($B76:$F76,$B$4:$F$4)</f>
+        <v>-5.6325516817443351</v>
+      </c>
+      <c r="M76" s="16">
+        <f t="shared" si="12"/>
+        <v>3.5794300980004985E-3</v>
+      </c>
+      <c r="N76" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B76:$F76,$B$4:$F$4)))</f>
+        <v>3.566663475407187E-3</v>
+      </c>
+      <c r="P76" s="16">
+        <f t="shared" si="13"/>
+        <v>-3.4726862766116745E-3</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S76">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="16">
-        <f t="shared" si="16"/>
-        <v>-5.6325516817443351</v>
-      </c>
-      <c r="M76" s="16">
-        <f t="shared" si="17"/>
-        <v>3.5794300980004985E-3</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" si="18"/>
-        <v>3.566663475407187E-3</v>
-      </c>
-      <c r="P76" s="16">
-        <f t="shared" si="19"/>
-        <v>-3.4726862766116745E-3</v>
-      </c>
-      <c r="R76">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6289,39 +6289,39 @@
         <v>6</v>
       </c>
       <c r="H77" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="16">
+        <f>SUMPRODUCT($B77:$F77,$B$4:$F$4)</f>
+        <v>-5.2260242537262585</v>
+      </c>
+      <c r="M77" s="16">
+        <f t="shared" si="12"/>
+        <v>5.3748519274661845E-3</v>
+      </c>
+      <c r="N77" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B77:$F77,$B$4:$F$4)))</f>
+        <v>5.346117338385502E-3</v>
+      </c>
+      <c r="P77" s="16">
+        <f t="shared" si="13"/>
+        <v>-5.2599265295477171E-3</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S77">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="16">
-        <f t="shared" si="16"/>
-        <v>-5.2260242537262585</v>
-      </c>
-      <c r="M77" s="16">
-        <f t="shared" si="17"/>
-        <v>5.3748519274661845E-3</v>
-      </c>
-      <c r="N77" s="2">
-        <f t="shared" si="18"/>
-        <v>5.346117338385502E-3</v>
-      </c>
-      <c r="P77" s="16">
-        <f t="shared" si="19"/>
-        <v>-5.2599265295477171E-3</v>
-      </c>
-      <c r="R77">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6349,39 +6349,39 @@
         <v>6</v>
       </c>
       <c r="H78" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="16">
+        <f>SUMPRODUCT($B78:$F78,$B$4:$F$4)</f>
+        <v>-5.1749338741148732</v>
+      </c>
+      <c r="M78" s="16">
+        <f t="shared" si="12"/>
+        <v>5.6565909486695643E-3</v>
+      </c>
+      <c r="N78" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B78:$F78,$B$4:$F$4)))</f>
+        <v>5.6247739035186076E-3</v>
+      </c>
+      <c r="P78" s="16">
+        <f t="shared" si="13"/>
+        <v>-5.5400919119351849E-3</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S78">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L78" s="16">
-        <f t="shared" si="16"/>
-        <v>-5.1749338741148732</v>
-      </c>
-      <c r="M78" s="16">
-        <f t="shared" si="17"/>
-        <v>5.6565909486695643E-3</v>
-      </c>
-      <c r="N78" s="2">
-        <f t="shared" si="18"/>
-        <v>5.6247739035186076E-3</v>
-      </c>
-      <c r="P78" s="16">
-        <f t="shared" si="19"/>
-        <v>-5.5400919119351849E-3</v>
-      </c>
-      <c r="R78">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6409,39 +6409,39 @@
         <v>6</v>
       </c>
       <c r="H79" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="16">
+        <f>SUMPRODUCT($B79:$F79,$B$4:$F$4)</f>
+        <v>-5.1290437204666652</v>
+      </c>
+      <c r="M79" s="16">
+        <f t="shared" si="12"/>
+        <v>5.9222210654932533E-3</v>
+      </c>
+      <c r="N79" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B79:$F79,$B$4:$F$4)))</f>
+        <v>5.8873548485889058E-3</v>
+      </c>
+      <c r="P79" s="16">
+        <f t="shared" si="13"/>
+        <v>-5.8041664812958672E-3</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S79">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="16">
-        <f t="shared" si="16"/>
-        <v>-5.1290437204666652</v>
-      </c>
-      <c r="M79" s="16">
-        <f t="shared" si="17"/>
-        <v>5.9222210654932533E-3</v>
-      </c>
-      <c r="N79" s="2">
-        <f t="shared" si="18"/>
-        <v>5.8873548485889058E-3</v>
-      </c>
-      <c r="P79" s="16">
-        <f t="shared" si="19"/>
-        <v>-5.8041664812958672E-3</v>
-      </c>
-      <c r="R79">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6469,39 +6469,39 @@
         <v>6</v>
       </c>
       <c r="H80" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="16">
+        <f>SUMPRODUCT($B80:$F80,$B$4:$F$4)</f>
+        <v>-4.3517783911946069</v>
+      </c>
+      <c r="M80" s="16">
+        <f t="shared" si="12"/>
+        <v>1.2883879616570969E-2</v>
+      </c>
+      <c r="N80" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B80:$F80,$B$4:$F$4)))</f>
+        <v>1.2719996710233146E-2</v>
+      </c>
+      <c r="P80" s="16">
+        <f t="shared" si="13"/>
+        <v>-1.2700305246417919E-2</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S80">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L80" s="16">
-        <f t="shared" si="16"/>
-        <v>-4.3517783911946069</v>
-      </c>
-      <c r="M80" s="16">
-        <f t="shared" si="17"/>
-        <v>1.2883879616570969E-2</v>
-      </c>
-      <c r="N80" s="2">
-        <f t="shared" si="18"/>
-        <v>1.2719996710233146E-2</v>
-      </c>
-      <c r="P80" s="16">
-        <f t="shared" si="19"/>
-        <v>-1.2700305246417919E-2</v>
-      </c>
-      <c r="R80">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6529,39 +6529,39 @@
         <v>6</v>
       </c>
       <c r="H81" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="16">
+        <f>SUMPRODUCT($B81:$F81,$B$4:$F$4)</f>
+        <v>-3.9917855386524481</v>
+      </c>
+      <c r="M81" s="16">
+        <f t="shared" si="12"/>
+        <v>1.8466711637570975E-2</v>
+      </c>
+      <c r="N81" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B81:$F81,$B$4:$F$4)))</f>
+        <v>1.8131875520878579E-2</v>
+      </c>
+      <c r="P81" s="16">
+        <f t="shared" si="13"/>
+        <v>-1.8196430951730493E-2</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S81">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L81" s="16">
-        <f t="shared" si="16"/>
-        <v>-3.9917855386524481</v>
-      </c>
-      <c r="M81" s="16">
-        <f t="shared" si="17"/>
-        <v>1.8466711637570975E-2</v>
-      </c>
-      <c r="N81" s="2">
-        <f t="shared" si="18"/>
-        <v>1.8131875520878579E-2</v>
-      </c>
-      <c r="P81" s="16">
-        <f t="shared" si="19"/>
-        <v>-1.8196430951730493E-2</v>
-      </c>
-      <c r="R81">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6589,39 +6589,39 @@
         <v>6</v>
       </c>
       <c r="H82" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="16">
+        <f>SUMPRODUCT($B82:$F82,$B$4:$F$4)</f>
+        <v>-3.8903366490540114</v>
+      </c>
+      <c r="M82" s="16">
+        <f t="shared" si="12"/>
+        <v>2.0438464289967016E-2</v>
+      </c>
+      <c r="N82" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B82:$F82,$B$4:$F$4)))</f>
+        <v>2.0029100239952573E-2</v>
+      </c>
+      <c r="P82" s="16">
+        <f t="shared" si="13"/>
+        <v>-2.0130363240489311E-2</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S82">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L82" s="16">
-        <f t="shared" si="16"/>
-        <v>-3.8903366490540114</v>
-      </c>
-      <c r="M82" s="16">
-        <f t="shared" si="17"/>
-        <v>2.0438464289967016E-2</v>
-      </c>
-      <c r="N82" s="2">
-        <f t="shared" si="18"/>
-        <v>2.0029100239952573E-2</v>
-      </c>
-      <c r="P82" s="16">
-        <f t="shared" si="19"/>
-        <v>-2.0130363240489311E-2</v>
-      </c>
-      <c r="R82">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S82">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6649,39 +6649,39 @@
         <v>6</v>
       </c>
       <c r="H83" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="16">
+        <f>SUMPRODUCT($B83:$F83,$B$4:$F$4)</f>
+        <v>-3.8261857972115854</v>
+      </c>
+      <c r="M83" s="16">
+        <f t="shared" si="12"/>
+        <v>2.1792578624582507E-2</v>
+      </c>
+      <c r="N83" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B83:$F83,$B$4:$F$4)))</f>
+        <v>2.1327791060997064E-2</v>
+      </c>
+      <c r="P83" s="16">
+        <f t="shared" si="13"/>
+        <v>-2.1456340809145789E-2</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S83">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="16">
-        <f t="shared" si="16"/>
-        <v>-3.8261857972115854</v>
-      </c>
-      <c r="M83" s="16">
-        <f t="shared" si="17"/>
-        <v>2.1792578624582507E-2</v>
-      </c>
-      <c r="N83" s="2">
-        <f t="shared" si="18"/>
-        <v>2.1327791060997064E-2</v>
-      </c>
-      <c r="P83" s="16">
-        <f t="shared" si="19"/>
-        <v>-2.1456340809145789E-2</v>
-      </c>
-      <c r="R83">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S83">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6709,39 +6709,39 @@
         <v>6</v>
       </c>
       <c r="H84" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="16">
+        <f>SUMPRODUCT($B84:$F84,$B$4:$F$4)</f>
+        <v>-3.6042730643245431</v>
+      </c>
+      <c r="M84" s="16">
+        <f t="shared" si="12"/>
+        <v>2.7207215521758556E-2</v>
+      </c>
+      <c r="N84" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B84:$F84,$B$4:$F$4)))</f>
+        <v>2.6486589181462232E-2</v>
+      </c>
+      <c r="P84" s="16">
+        <f t="shared" si="13"/>
+        <v>-2.6740962939288789E-2</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S84">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="16">
-        <f t="shared" si="16"/>
-        <v>-3.6042730643245431</v>
-      </c>
-      <c r="M84" s="16">
-        <f t="shared" si="17"/>
-        <v>2.7207215521758556E-2</v>
-      </c>
-      <c r="N84" s="2">
-        <f t="shared" si="18"/>
-        <v>2.6486589181462232E-2</v>
-      </c>
-      <c r="P84" s="16">
-        <f t="shared" si="19"/>
-        <v>-2.6740962939288789E-2</v>
-      </c>
-      <c r="R84">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6769,39 +6769,39 @@
         <v>6</v>
       </c>
       <c r="H85" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="16">
+        <f>SUMPRODUCT($B85:$F85,$B$4:$F$4)</f>
+        <v>-2.1138932576228573</v>
+      </c>
+      <c r="M85" s="16">
+        <f t="shared" si="12"/>
+        <v>0.12076687343463682</v>
+      </c>
+      <c r="N85" s="2">
+        <f>1/(1+EXP(-SUMPRODUCT($B85:$F85,$B$4:$F$4)))</f>
+        <v>0.1077537856419165</v>
+      </c>
+      <c r="P85" s="16">
+        <f t="shared" si="13"/>
+        <v>-0.11390108901770053</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S85">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L85" s="16">
-        <f t="shared" si="16"/>
-        <v>-2.1138932576228573</v>
-      </c>
-      <c r="M85" s="16">
-        <f t="shared" si="17"/>
-        <v>0.12076687343463682</v>
-      </c>
-      <c r="N85" s="2">
-        <f t="shared" si="18"/>
-        <v>0.1077537856419165</v>
-      </c>
-      <c r="P85" s="16">
-        <f t="shared" si="19"/>
-        <v>-0.11390108901770053</v>
-      </c>
-      <c r="R85">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S85">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -6829,39 +6829,39 @@
         <v>6</v>
       </c>
       <c r="H86" s="9">
-        <f t="shared" ref="H86:J105" si="22">IF($G86=H$2, 1, 0)</f>
+        <f t="shared" ref="H86:J105" si="16">IF($G86=H$2, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L86" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B86:$F86,$B$4:$F$4)</f>
         <v>-0.10898811656382623</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0.89674107380023349</v>
       </c>
       <c r="N86" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B86:$F86,$B$4:$F$4)))</f>
         <v>0.47277990980791029</v>
       </c>
       <c r="P86" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-0.63994753305375374</v>
       </c>
       <c r="R86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6889,39 +6889,39 @@
         <v>7</v>
       </c>
       <c r="H87" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J87">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L87" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B87:$F87,$B$4:$F$4)</f>
         <v>0.44943415883635485</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1.5674250209189595</v>
       </c>
       <c r="N87" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B87:$F87,$B$4:$F$4)))</f>
         <v>0.61050469172335575</v>
       </c>
       <c r="P87" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-0.49330551491894437</v>
       </c>
       <c r="R87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6949,39 +6949,39 @@
         <v>6</v>
       </c>
       <c r="H88" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J88">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L88" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B88:$F88,$B$4:$F$4)</f>
         <v>0.59187280116206242</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>1.8073700926146685</v>
       </c>
       <c r="N88" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B88:$F88,$B$4:$F$4)))</f>
         <v>0.64379473777586571</v>
       </c>
       <c r="P88" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-1.0319674373967975</v>
       </c>
       <c r="R88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -7009,39 +7009,39 @@
         <v>7</v>
       </c>
       <c r="H89" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J89">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L89" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B89:$F89,$B$4:$F$4)</f>
         <v>1.0961350179356932</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>2.9925773855115341</v>
       </c>
       <c r="N89" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B89:$F89,$B$4:$F$4)))</f>
         <v>0.74953522413144691</v>
       </c>
       <c r="P89" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-0.28816855859171353</v>
       </c>
       <c r="R89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S89">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7069,39 +7069,39 @@
         <v>7</v>
       </c>
       <c r="H90" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L90" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B90:$F90,$B$4:$F$4)</f>
         <v>1.3370627045129071</v>
       </c>
       <c r="M90" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>3.8078423047843581</v>
       </c>
       <c r="N90" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B90:$F90,$B$4:$F$4)))</f>
         <v>0.79200648927172912</v>
       </c>
       <c r="P90" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-0.23305944005495621</v>
       </c>
       <c r="R90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7129,39 +7129,39 @@
         <v>7</v>
       </c>
       <c r="H91" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L91" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B91:$F91,$B$4:$F$4)</f>
         <v>1.687709185666912</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>5.4070798904591078</v>
       </c>
       <c r="N91" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B91:$F91,$B$4:$F$4)))</f>
         <v>0.8439226578883281</v>
       </c>
       <c r="P91" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-0.16957593890727174</v>
       </c>
       <c r="R91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7189,39 +7189,39 @@
         <v>7</v>
       </c>
       <c r="H92" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L92" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B92:$F92,$B$4:$F$4)</f>
         <v>2.2840739206508118</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>9.8165910709804223</v>
       </c>
       <c r="N92" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B92:$F92,$B$4:$F$4)))</f>
         <v>0.90754943092164431</v>
       </c>
       <c r="P92" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-9.6897064225847943E-2</v>
       </c>
       <c r="R92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7249,39 +7249,39 @@
         <v>7</v>
       </c>
       <c r="H93" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L93" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B93:$F93,$B$4:$F$4)</f>
         <v>2.312435245729147</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>10.098988251685894</v>
       </c>
       <c r="N93" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B93:$F93,$B$4:$F$4)))</f>
         <v>0.90990169758508355</v>
       </c>
       <c r="P93" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-9.4308813994867555E-2</v>
       </c>
       <c r="R93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7309,39 +7309,39 @@
         <v>7</v>
       </c>
       <c r="H94" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L94" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B94:$F94,$B$4:$F$4)</f>
         <v>2.6873192924081044</v>
       </c>
       <c r="M94" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>14.692237490028885</v>
       </c>
       <c r="N94" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B94:$F94,$B$4:$F$4)))</f>
         <v>0.93627422471553745</v>
       </c>
       <c r="P94" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-6.5740069678082616E-2</v>
       </c>
       <c r="R94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7369,39 +7369,39 @@
         <v>7</v>
       </c>
       <c r="H95" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L95" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B95:$F95,$B$4:$F$4)</f>
         <v>3.7026051199418006</v>
       </c>
       <c r="M95" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>40.552811809357792</v>
       </c>
       <c r="N95" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B95:$F95,$B$4:$F$4)))</f>
         <v>0.97593423991165873</v>
       </c>
       <c r="P95" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-2.4257611307699704E-2</v>
       </c>
       <c r="R95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S95">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7429,39 +7429,39 @@
         <v>7</v>
       </c>
       <c r="H96" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L96" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B96:$F96,$B$4:$F$4)</f>
         <v>4.3591942286796366</v>
       </c>
       <c r="M96" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>78.194102466634078</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B96:$F96,$B$4:$F$4)))</f>
         <v>0.98737279710416159</v>
       </c>
       <c r="P96" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-1.2606329822584269E-2</v>
       </c>
       <c r="R96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7489,39 +7489,39 @@
         <v>7</v>
       </c>
       <c r="H97" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L97" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B97:$F97,$B$4:$F$4)</f>
         <v>4.9552367527496877</v>
       </c>
       <c r="M97" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>141.91620144685623</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B97:$F97,$B$4:$F$4)))</f>
         <v>0.99300289267503494</v>
       </c>
       <c r="P97" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-6.9210023038964929E-3</v>
       </c>
       <c r="R97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7549,39 +7549,39 @@
         <v>7</v>
       </c>
       <c r="H98" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L98" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B98:$F98,$B$4:$F$4)</f>
         <v>5.643359409158399</v>
       </c>
       <c r="M98" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>282.40985693152157</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B98:$F98,$B$4:$F$4)))</f>
         <v>0.99647154121304404</v>
       </c>
       <c r="P98" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-3.434349419497234E-3</v>
       </c>
       <c r="R98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7609,39 +7609,39 @@
         <v>7</v>
       </c>
       <c r="H99" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L99" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B99:$F99,$B$4:$F$4)</f>
         <v>5.7638232524470085</v>
       </c>
       <c r="M99" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>318.56395403302929</v>
       </c>
       <c r="N99" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B99:$F99,$B$4:$F$4)))</f>
         <v>0.99687073592819353</v>
       </c>
       <c r="P99" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-3.0338615792719205E-3</v>
       </c>
       <c r="R99">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7669,39 +7669,39 @@
         <v>7</v>
       </c>
       <c r="H100" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J100">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L100" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B100:$F100,$B$4:$F$4)</f>
         <v>5.8979919897943738</v>
       </c>
       <c r="M100" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>364.30520434677538</v>
       </c>
       <c r="N100" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B100:$F100,$B$4:$F$4)))</f>
         <v>0.99726256295256421</v>
       </c>
       <c r="P100" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-2.6409212120502945E-3</v>
       </c>
       <c r="R100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S100">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7729,39 +7729,39 @@
         <v>7</v>
       </c>
       <c r="H101" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J101">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L101" s="16">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT($B101:$F101,$B$4:$F$4)</f>
         <v>6.401931995654139</v>
       </c>
       <c r="M101" s="16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>603.00892381898427</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" si="18"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B101:$F101,$B$4:$F$4)))</f>
         <v>0.99834439532171604</v>
       </c>
       <c r="P101" s="16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>-1.556815887512987E-3</v>
       </c>
       <c r="R101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -7789,39 +7789,39 @@
         <v>7</v>
       </c>
       <c r="H102" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L102" s="16">
-        <f t="shared" ref="L102:L128" si="23">SUMPRODUCT($B102:$F102,$B$4:$F$4)</f>
+        <f>SUMPRODUCT($B102:$F102,$B$4:$F$4)</f>
         <v>6.5317422103309033</v>
       </c>
       <c r="M102" s="16">
-        <f t="shared" ref="M102:M133" si="24">EXP(L102)</f>
+        <f t="shared" ref="M102:M128" si="17">EXP(L102)</f>
         <v>686.59336013450627</v>
       </c>
       <c r="N102" s="2">
-        <f t="shared" ref="N102:N128" si="25">1/(1+EXP(-SUMPRODUCT($B102:$F102,$B$4:$F$4)))</f>
+        <f>1/(1+EXP(-SUMPRODUCT($B102:$F102,$B$4:$F$4)))</f>
         <v>0.99854565204090351</v>
       </c>
       <c r="P102" s="16">
-        <f t="shared" ref="P102:P128" si="26">H102 *LN(N102+0.0001) + (1-H102)*LN(1-N102+0.0001)</f>
+        <f t="shared" ref="P102:P128" si="18">H102 *LN(N102+0.0001) + (1-H102)*LN(1-N102+0.0001)</f>
         <v>-1.3552659172103995E-3</v>
       </c>
       <c r="R102">
-        <f t="shared" ref="R102:R128" si="27">IF(N102&gt;50%, 1, 0)</f>
+        <f t="shared" ref="R102:R128" si="19">IF(N102&gt;50%, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="S102">
-        <f t="shared" ref="S102:S133" si="28">IF(R102=H102, 1, 0)</f>
+        <f t="shared" ref="S102:S128" si="20">IF(R102=H102, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7849,39 +7849,39 @@
         <v>7</v>
       </c>
       <c r="H103" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J103">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L103" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B103:$F103,$B$4:$F$4)</f>
         <v>6.66079816951172</v>
       </c>
       <c r="M103" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>781.17419778790327</v>
       </c>
       <c r="N103" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B103:$F103,$B$4:$F$4)))</f>
         <v>0.99872151241650764</v>
       </c>
       <c r="P103" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>-1.1791825460414061E-3</v>
       </c>
       <c r="R103">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S103">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -7909,39 +7909,39 @@
         <v>7</v>
       </c>
       <c r="H104" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I104">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J104">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L104" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B104:$F104,$B$4:$F$4)</f>
         <v>7.4274282837401957</v>
       </c>
       <c r="M104" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>1681.4777245769703</v>
       </c>
       <c r="N104" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B104:$F104,$B$4:$F$4)))</f>
         <v>0.99940563849054742</v>
       </c>
       <c r="P104" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>-4.9448374639142251E-4</v>
       </c>
       <c r="R104">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S104">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -7969,39 +7969,39 @@
         <v>7</v>
       </c>
       <c r="H105" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J105">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L105" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B105:$F105,$B$4:$F$4)</f>
         <v>7.5291993842524834</v>
       </c>
       <c r="M105" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>1861.6144689036375</v>
       </c>
       <c r="N105" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B105:$F105,$B$4:$F$4)))</f>
         <v>0.99946312024485207</v>
       </c>
       <c r="P105" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>-4.3697521491214573E-4</v>
       </c>
       <c r="R105">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S105">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8029,39 +8029,39 @@
         <v>7</v>
       </c>
       <c r="H106" s="9">
-        <f t="shared" ref="H106:J128" si="29">IF($G106=H$2, 1, 0)</f>
+        <f t="shared" ref="H106:J128" si="21">IF($G106=H$2, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="I106">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J106">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L106" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B106:$F106,$B$4:$F$4)</f>
         <v>7.6409612779806455</v>
       </c>
       <c r="M106" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>2081.7439897148006</v>
       </c>
       <c r="N106" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B106:$F106,$B$4:$F$4)))</f>
         <v>0.99951986417680794</v>
       </c>
       <c r="P106" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>-3.8020809312961913E-4</v>
       </c>
       <c r="R106">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S106">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8089,39 +8089,39 @@
         <v>7</v>
       </c>
       <c r="H107" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I107">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J107">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L107" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B107:$F107,$B$4:$F$4)</f>
         <v>8.1628397711207814</v>
       </c>
       <c r="M107" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>3508.1347716302935</v>
       </c>
       <c r="N107" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B107:$F107,$B$4:$F$4)))</f>
         <v>0.99971502946877833</v>
       </c>
       <c r="P107" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>-1.8498764038022043E-4</v>
       </c>
       <c r="R107">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S107">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8149,39 +8149,39 @@
         <v>7</v>
       </c>
       <c r="H108" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I108">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J108">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L108" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B108:$F108,$B$4:$F$4)</f>
         <v>8.8269445293410165</v>
       </c>
       <c r="M108" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>6815.4306208130538</v>
       </c>
       <c r="N108" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B108:$F108,$B$4:$F$4)))</f>
         <v>0.99985329565345438</v>
       </c>
       <c r="P108" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>-4.6705437227587029E-5</v>
       </c>
       <c r="R108">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S108">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8209,39 +8209,39 @@
         <v>7</v>
       </c>
       <c r="H109" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I109">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J109">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L109" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B109:$F109,$B$4:$F$4)</f>
         <v>8.8647771552564816</v>
       </c>
       <c r="M109" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>7078.2158423078627</v>
       </c>
       <c r="N109" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B109:$F109,$B$4:$F$4)))</f>
         <v>0.9998587414168072</v>
       </c>
       <c r="P109" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>-4.1259434351571189E-5</v>
       </c>
       <c r="R109">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S109">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8269,39 +8269,39 @@
         <v>7</v>
       </c>
       <c r="H110" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I110">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J110">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L110" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B110:$F110,$B$4:$F$4)</f>
         <v>8.9845965767173865</v>
       </c>
       <c r="M110" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>7979.2250700915611</v>
       </c>
       <c r="N110" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B110:$F110,$B$4:$F$4)))</f>
         <v>0.99987469025106235</v>
       </c>
       <c r="P110" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>-2.5310069234763105E-5</v>
       </c>
       <c r="R110">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S110">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8329,39 +8329,39 @@
         <v>7</v>
       </c>
       <c r="H111" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I111">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J111">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L111" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B111:$F111,$B$4:$F$4)</f>
         <v>9.7208721532621674</v>
       </c>
       <c r="M111" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>16661.770011457786</v>
       </c>
       <c r="N111" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B111:$F111,$B$4:$F$4)))</f>
         <v>0.99993998596876077</v>
       </c>
       <c r="P111" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>3.9985169343219824E-5</v>
       </c>
       <c r="R111">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S111">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8389,39 +8389,39 @@
         <v>7</v>
       </c>
       <c r="H112" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I112">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J112">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L112" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B112:$F112,$B$4:$F$4)</f>
         <v>10.353868118302749</v>
       </c>
       <c r="M112" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>31378.182900066276</v>
       </c>
       <c r="N112" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B112:$F112,$B$4:$F$4)))</f>
         <v>0.99996813173870125</v>
       </c>
       <c r="P112" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>6.8129417839744519E-5</v>
       </c>
       <c r="R112">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S112">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8449,39 +8449,39 @@
         <v>7</v>
       </c>
       <c r="H113" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I113">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J113">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L113" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B113:$F113,$B$4:$F$4)</f>
         <v>10.792470972242047</v>
       </c>
       <c r="M113" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>48653.108086425535</v>
       </c>
       <c r="N113" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B113:$F113,$B$4:$F$4)))</f>
         <v>0.99997944675096662</v>
       </c>
       <c r="P113" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>7.9443595240626013E-5</v>
       </c>
       <c r="R113">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S113">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8509,39 +8509,39 @@
         <v>7</v>
       </c>
       <c r="H114" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I114">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L114" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B114:$F114,$B$4:$F$4)</f>
         <v>10.838683336804108</v>
       </c>
       <c r="M114" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>50954.244217672713</v>
       </c>
       <c r="N114" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B114:$F114,$B$4:$F$4)))</f>
         <v>0.99998037493460479</v>
       </c>
       <c r="P114" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>8.0371704712787345E-5</v>
       </c>
       <c r="R114">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S114">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8569,39 +8569,39 @@
         <v>7</v>
       </c>
       <c r="H115" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I115">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J115">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L115" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B115:$F115,$B$4:$F$4)</f>
         <v>10.880214967781722</v>
       </c>
       <c r="M115" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>53115.016708261137</v>
       </c>
       <c r="N115" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B115:$F115,$B$4:$F$4)))</f>
         <v>0.99998117328704272</v>
       </c>
       <c r="P115" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>8.1169992669723732E-5</v>
       </c>
       <c r="R115">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S115">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8629,39 +8629,39 @@
         <v>7</v>
       </c>
       <c r="H116" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I116">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J116">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L116" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B116:$F116,$B$4:$F$4)</f>
         <v>10.967739295984918</v>
       </c>
       <c r="M116" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>57973.384483111462</v>
       </c>
       <c r="N116" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B116:$F116,$B$4:$F$4)))</f>
         <v>0.99998275100272449</v>
       </c>
       <c r="P116" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>8.2747579049238137E-5</v>
       </c>
       <c r="R116">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S116">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8689,39 +8689,39 @@
         <v>7</v>
       </c>
       <c r="H117" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I117">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J117">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L117" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B117:$F117,$B$4:$F$4)</f>
         <v>11.333167137607481</v>
       </c>
       <c r="M117" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>83547.209776030242</v>
       </c>
       <c r="N117" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B117:$F117,$B$4:$F$4)))</f>
         <v>0.999988030862628</v>
       </c>
       <c r="P117" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>8.8026988139090667E-5</v>
       </c>
       <c r="R117">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S117">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8749,39 +8749,39 @@
         <v>7</v>
       </c>
       <c r="H118" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I118">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J118">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L118" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B118:$F118,$B$4:$F$4)</f>
         <v>11.901690039891783</v>
       </c>
       <c r="M118" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>147515.72214449977</v>
       </c>
       <c r="N118" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B118:$F118,$B$4:$F$4)))</f>
         <v>0.99999322110750932</v>
       </c>
       <c r="P118" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.3216762691885854E-5</v>
       </c>
       <c r="R118">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S118">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8809,39 +8809,39 @@
         <v>7</v>
       </c>
       <c r="H119" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I119">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L119" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B119:$F119,$B$4:$F$4)</f>
         <v>11.988247735353406</v>
       </c>
       <c r="M119" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>160853.24963490624</v>
       </c>
       <c r="N119" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B119:$F119,$B$4:$F$4)))</f>
         <v>0.99999378319191268</v>
       </c>
       <c r="P119" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.3778794544165415E-5</v>
       </c>
       <c r="R119">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S119">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8869,39 +8869,39 @@
         <v>7</v>
       </c>
       <c r="H120" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I120">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J120">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L120" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B120:$F120,$B$4:$F$4)</f>
         <v>12.086304735022813</v>
       </c>
       <c r="M120" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>177425.26110407902</v>
       </c>
       <c r="N120" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B120:$F120,$B$4:$F$4)))</f>
         <v>0.99999436385575746</v>
       </c>
       <c r="P120" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.4359403768994404E-5</v>
       </c>
       <c r="R120">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S120">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8929,39 +8929,39 @@
         <v>7</v>
       </c>
       <c r="H121" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I121">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J121">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L121" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B121:$F121,$B$4:$F$4)</f>
         <v>12.58057615858058</v>
       </c>
       <c r="M121" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>290853.84193331504</v>
       </c>
       <c r="N121" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B121:$F121,$B$4:$F$4)))</f>
         <v>0.99999656185885255</v>
       </c>
       <c r="P121" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.6557197056456849E-5</v>
       </c>
       <c r="R121">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S121">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -8989,39 +8989,39 @@
         <v>7</v>
       </c>
       <c r="H122" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I122">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J122">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L122" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B122:$F122,$B$4:$F$4)</f>
         <v>13.048294593094147</v>
       </c>
       <c r="M122" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>464303.90899814683</v>
       </c>
       <c r="N122" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B122:$F122,$B$4:$F$4)))</f>
         <v>0.99999784624288779</v>
       </c>
       <c r="P122" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.7841456256387747E-5</v>
       </c>
       <c r="R122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S122">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -9049,39 +9049,39 @@
         <v>7</v>
       </c>
       <c r="H123" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I123">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J123">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L123" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B123:$F123,$B$4:$F$4)</f>
         <v>14.044353089692075</v>
       </c>
       <c r="M123" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>1257144.0631192629</v>
       </c>
       <c r="N123" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B123:$F123,$B$4:$F$4)))</f>
         <v>0.99999920454685032</v>
       </c>
       <c r="P123" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.9199626404777478E-5</v>
       </c>
       <c r="R123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S123">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -9109,39 +9109,39 @@
         <v>7</v>
       </c>
       <c r="H124" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I124">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L124" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B124:$F124,$B$4:$F$4)</f>
         <v>14.188190409341434</v>
       </c>
       <c r="M124" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>1451619.531438984</v>
       </c>
       <c r="N124" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B124:$F124,$B$4:$F$4)))</f>
         <v>0.99999931111473117</v>
       </c>
       <c r="P124" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.9306183708872768E-5</v>
       </c>
       <c r="R124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S124">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -9169,39 +9169,39 @@
         <v>7</v>
       </c>
       <c r="H125" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I125">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J125">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L125" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B125:$F125,$B$4:$F$4)</f>
         <v>15.460159206753357</v>
       </c>
       <c r="M125" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>5179189.8725982839</v>
       </c>
       <c r="N125" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B125:$F125,$B$4:$F$4)))</f>
         <v>0.9999998069196474</v>
       </c>
       <c r="P125" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.9801939268170554E-5</v>
       </c>
       <c r="R125">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S125">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -9229,39 +9229,39 @@
         <v>7</v>
       </c>
       <c r="H126" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I126">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L126" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B126:$F126,$B$4:$F$4)</f>
         <v>15.756323418366946</v>
       </c>
       <c r="M126" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>6964409.7633460378</v>
       </c>
       <c r="N126" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B126:$F126,$B$4:$F$4)))</f>
         <v>0.99999985641283473</v>
       </c>
       <c r="P126" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.9851427515002691E-5</v>
       </c>
       <c r="R126">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S126">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -9289,39 +9289,39 @@
         <v>7</v>
       </c>
       <c r="H127" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I127">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L127" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B127:$F127,$B$4:$F$4)</f>
         <v>16.854687603636613</v>
       </c>
       <c r="M127" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>20888046.251838081</v>
       </c>
       <c r="N127" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B127:$F127,$B$4:$F$4)))</f>
         <v>0.99999995212573067</v>
       </c>
       <c r="P127" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.9947130849884202E-5</v>
       </c>
       <c r="R127">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S127">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -9349,39 +9349,39 @@
         <v>7</v>
       </c>
       <c r="H128" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="I128">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J128">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="L128" s="16">
-        <f t="shared" si="23"/>
+        <f>SUMPRODUCT($B128:$F128,$B$4:$F$4)</f>
         <v>21.422757670455255</v>
       </c>
       <c r="M128" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="17"/>
         <v>2012729645.7879128</v>
       </c>
       <c r="N128" s="2">
-        <f t="shared" si="25"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B128:$F128,$B$4:$F$4)))</f>
         <v>0.99999999950316232</v>
       </c>
       <c r="P128" s="16">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>9.9994503545293887E-5</v>
       </c>
       <c r="R128">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="S128">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
     </row>
@@ -9432,39 +9432,39 @@
         <v>5</v>
       </c>
       <c r="H133" s="12">
-        <f t="shared" ref="H133:J159" si="30">IF($G133=H$2, 1, 0)</f>
+        <f t="shared" ref="H133:J159" si="22">IF($G133=H$2, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J133" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K133" s="3"/>
       <c r="L133" s="17">
-        <f t="shared" ref="L133:L159" si="31">SUMPRODUCT($B133:$F133,$B$4:$F$4)</f>
+        <f>SUMPRODUCT($B133:$F133,$B$4:$F$4)</f>
         <v>-45.854497583394313</v>
       </c>
       <c r="M133" s="17"/>
       <c r="N133" s="4">
-        <f t="shared" ref="N133:N159" si="32">1/(1+EXP(-SUMPRODUCT($B133:$F133,$B$4:$F$4)))</f>
+        <f>1/(1+EXP(-SUMPRODUCT($B133:$F133,$B$4:$F$4)))</f>
         <v>1.2179928225894024E-20</v>
       </c>
       <c r="O133" s="3"/>
       <c r="P133" s="17">
-        <f t="shared" ref="P133:P159" si="33">H133 *LN(N133+0.0001) + (1-H133)*LN(1-N133+0.0001)</f>
+        <f t="shared" ref="P133:P159" si="23">H133 *LN(N133+0.0001) + (1-H133)*LN(1-N133+0.0001)</f>
         <v>9.9995000333297321E-5</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="3">
-        <f t="shared" ref="R133:R159" si="34">IF(N133&gt;50%, 1, 0)</f>
+        <f t="shared" ref="R133:R159" si="24">IF(N133&gt;50%, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="S133" s="5">
-        <f t="shared" ref="S133:S159" si="35">IF(R133=H133, 1, 0)</f>
+        <f t="shared" ref="S133:S159" si="25">IF(R133=H133, 1, 0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9492,39 +9492,39 @@
         <v>5</v>
       </c>
       <c r="H134" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I134" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J134" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K134" s="3"/>
       <c r="L134" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B134:$F134,$B$4:$F$4)</f>
         <v>-44.934865762279273</v>
       </c>
       <c r="M134" s="17"/>
       <c r="N134" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B134:$F134,$B$4:$F$4)))</f>
         <v>3.0551726275851541E-20</v>
       </c>
       <c r="O134" s="3"/>
       <c r="P134" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.9995000333297321E-5</v>
       </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S134" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -9552,39 +9552,39 @@
         <v>5</v>
       </c>
       <c r="H135" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I135" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J135" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K135" s="3"/>
       <c r="L135" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B135:$F135,$B$4:$F$4)</f>
         <v>-46.191789936166344</v>
       </c>
       <c r="M135" s="17"/>
       <c r="N135" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B135:$F135,$B$4:$F$4)))</f>
         <v>8.6928166892661798E-21</v>
       </c>
       <c r="O135" s="3"/>
       <c r="P135" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.9995000333297321E-5</v>
       </c>
       <c r="Q135" s="3"/>
       <c r="R135" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S135" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -9612,39 +9612,39 @@
         <v>5</v>
       </c>
       <c r="H136" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J136" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K136" s="3"/>
       <c r="L136" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B136:$F136,$B$4:$F$4)</f>
         <v>-43.001474276283659</v>
       </c>
       <c r="M136" s="17"/>
       <c r="N136" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B136:$F136,$B$4:$F$4)))</f>
         <v>2.1120150475450225E-19</v>
       </c>
       <c r="O136" s="3"/>
       <c r="P136" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.9995000333297321E-5</v>
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S136" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -9672,39 +9672,39 @@
         <v>5</v>
       </c>
       <c r="H137" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J137" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K137" s="3"/>
       <c r="L137" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B137:$F137,$B$4:$F$4)</f>
         <v>-45.488145623175186</v>
       </c>
       <c r="M137" s="17"/>
       <c r="N137" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B137:$F137,$B$4:$F$4)))</f>
         <v>1.7569093894553757E-20</v>
       </c>
       <c r="O137" s="3"/>
       <c r="P137" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.9995000333297321E-5</v>
       </c>
       <c r="Q137" s="3"/>
       <c r="R137" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S137" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -9732,39 +9732,39 @@
         <v>5</v>
       </c>
       <c r="H138" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J138" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K138" s="3"/>
       <c r="L138" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B138:$F138,$B$4:$F$4)</f>
         <v>-48.792856721781497</v>
       </c>
       <c r="M138" s="17"/>
       <c r="N138" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B138:$F138,$B$4:$F$4)))</f>
         <v>6.4495820101993033E-22</v>
       </c>
       <c r="O138" s="3"/>
       <c r="P138" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.9995000333297321E-5</v>
       </c>
       <c r="Q138" s="3"/>
       <c r="R138" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S138" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -9792,39 +9792,39 @@
         <v>5</v>
       </c>
       <c r="H139" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J139" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K139" s="3"/>
       <c r="L139" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B139:$F139,$B$4:$F$4)</f>
         <v>-44.643556406099265</v>
       </c>
       <c r="M139" s="17"/>
       <c r="N139" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B139:$F139,$B$4:$F$4)))</f>
         <v>4.0883663048088165E-20</v>
       </c>
       <c r="O139" s="3"/>
       <c r="P139" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.9995000333297321E-5</v>
       </c>
       <c r="Q139" s="3"/>
       <c r="R139" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S139" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -9852,39 +9852,39 @@
         <v>5</v>
       </c>
       <c r="H140" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J140" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K140" s="3"/>
       <c r="L140" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B140:$F140,$B$4:$F$4)</f>
         <v>-45.665059540631567</v>
       </c>
       <c r="M140" s="17"/>
       <c r="N140" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B140:$F140,$B$4:$F$4)))</f>
         <v>1.472029880346867E-20</v>
       </c>
       <c r="O140" s="3"/>
       <c r="P140" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.9995000333297321E-5</v>
       </c>
       <c r="Q140" s="3"/>
       <c r="R140" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S140" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -9912,39 +9912,39 @@
         <v>6</v>
       </c>
       <c r="H141" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J141" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K141" s="3"/>
       <c r="L141" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B141:$F141,$B$4:$F$4)</f>
         <v>-5.8589167379882845</v>
       </c>
       <c r="M141" s="17"/>
       <c r="N141" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B141:$F141,$B$4:$F$4)))</f>
         <v>2.8462099662784576E-3</v>
       </c>
       <c r="O141" s="3"/>
       <c r="P141" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-2.7499877187874694E-3</v>
       </c>
       <c r="Q141" s="3"/>
       <c r="R141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S141" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -9972,39 +9972,39 @@
         <v>6</v>
       </c>
       <c r="H142" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J142" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K142" s="3"/>
       <c r="L142" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B142:$F142,$B$4:$F$4)</f>
         <v>-1.6282919478638842</v>
       </c>
       <c r="M142" s="17"/>
       <c r="N142" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B142:$F142,$B$4:$F$4)))</f>
         <v>0.16406448161491788</v>
       </c>
       <c r="O142" s="3"/>
       <c r="P142" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-0.179084180693387</v>
       </c>
       <c r="Q142" s="3"/>
       <c r="R142" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S142" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10032,39 +10032,39 @@
         <v>6</v>
       </c>
       <c r="H143" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I143" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J143" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K143" s="3"/>
       <c r="L143" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B143:$F143,$B$4:$F$4)</f>
         <v>-5.741416721968795</v>
       </c>
       <c r="M143" s="17"/>
       <c r="N143" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B143:$F143,$B$4:$F$4)))</f>
         <v>3.1999445505162686E-3</v>
       </c>
       <c r="O143" s="3"/>
       <c r="P143" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-3.1047593315687064E-3</v>
       </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S143" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10092,39 +10092,39 @@
         <v>6</v>
       </c>
       <c r="H144" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I144" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J144" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K144" s="3"/>
       <c r="L144" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B144:$F144,$B$4:$F$4)</f>
         <v>-17.822131645069181</v>
       </c>
       <c r="M144" s="17"/>
       <c r="N144" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B144:$F144,$B$4:$F$4)))</f>
         <v>1.8194769700398145E-8</v>
       </c>
       <c r="O144" s="3"/>
       <c r="P144" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.9976807382735978E-5</v>
       </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S144" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10152,39 +10152,39 @@
         <v>6</v>
       </c>
       <c r="H145" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I145" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J145" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K145" s="3"/>
       <c r="L145" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B145:$F145,$B$4:$F$4)</f>
         <v>-12.470888692786607</v>
       </c>
       <c r="M145" s="17"/>
       <c r="N145" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B145:$F145,$B$4:$F$4)))</f>
         <v>3.8367207425005779E-6</v>
       </c>
       <c r="O145" s="3"/>
       <c r="P145" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.6158655865803165E-5</v>
       </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S145" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10212,39 +10212,39 @@
         <v>6</v>
       </c>
       <c r="H146" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J146" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K146" s="3"/>
       <c r="L146" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B146:$F146,$B$4:$F$4)</f>
         <v>-14.403652643260731</v>
       </c>
       <c r="M146" s="17"/>
       <c r="N146" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B146:$F146,$B$4:$F$4)))</f>
         <v>5.5535782644418441E-7</v>
       </c>
       <c r="O146" s="3"/>
       <c r="P146" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.9439697882953745E-5</v>
       </c>
       <c r="Q146" s="3"/>
       <c r="R146" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S146" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10272,39 +10272,39 @@
         <v>6</v>
       </c>
       <c r="H147" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I147" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J147" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K147" s="3"/>
       <c r="L147" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B147:$F147,$B$4:$F$4)</f>
         <v>-12.836613117484244</v>
       </c>
       <c r="M147" s="17"/>
       <c r="N147" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B147:$F147,$B$4:$F$4)))</f>
         <v>2.6615130555751543E-6</v>
       </c>
       <c r="O147" s="3"/>
       <c r="P147" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.7333749861364623E-5</v>
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S147" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10332,39 +10332,39 @@
         <v>6</v>
       </c>
       <c r="H148" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J148" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K148" s="3"/>
       <c r="L148" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B148:$F148,$B$4:$F$4)</f>
         <v>1.8338995369679068</v>
       </c>
       <c r="M148" s="17"/>
       <c r="N148" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B148:$F148,$B$4:$F$4)))</f>
         <v>0.86222561763382044</v>
       </c>
       <c r="O148" s="3"/>
       <c r="P148" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-1.9814122810835664</v>
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S148" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -10392,39 +10392,39 @@
         <v>6</v>
       </c>
       <c r="H149" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I149" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J149" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K149" s="3"/>
       <c r="L149" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B149:$F149,$B$4:$F$4)</f>
         <v>-4.389530640588994</v>
       </c>
       <c r="M149" s="17"/>
       <c r="N149" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B149:$F149,$B$4:$F$4)))</f>
         <v>1.2254514723825292E-2</v>
       </c>
       <c r="O149" s="3"/>
       <c r="P149" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-1.2228984885558519E-2</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S149" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10452,39 +10452,39 @@
         <v>6</v>
       </c>
       <c r="H150" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I150" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J150" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K150" s="3"/>
       <c r="L150" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B150:$F150,$B$4:$F$4)</f>
         <v>-7.0696513870776254</v>
       </c>
       <c r="M150" s="17"/>
       <c r="N150" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B150:$F150,$B$4:$F$4)))</f>
         <v>8.4980677729943276E-4</v>
       </c>
       <c r="O150" s="3"/>
       <c r="P150" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-7.5008802299646085E-4</v>
       </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S150" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10512,39 +10512,39 @@
         <v>7</v>
       </c>
       <c r="H151" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I151" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J151" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K151" s="3"/>
       <c r="L151" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B151:$F151,$B$4:$F$4)</f>
         <v>4.1841670069120216</v>
       </c>
       <c r="M151" s="17"/>
       <c r="N151" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B151:$F151,$B$4:$F$4)))</f>
         <v>0.98499372770903515</v>
       </c>
       <c r="O151" s="3"/>
       <c r="P151" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-1.5018487302447859E-2</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S151" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10572,39 +10572,39 @@
         <v>7</v>
       </c>
       <c r="H152" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I152" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J152" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K152" s="3"/>
       <c r="L152" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B152:$F152,$B$4:$F$4)</f>
         <v>5.4081180817361432</v>
       </c>
       <c r="M152" s="17"/>
       <c r="N152" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B152:$F152,$B$4:$F$4)))</f>
         <v>0.99553991805375286</v>
       </c>
       <c r="O152" s="3"/>
       <c r="P152" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-4.3696148230435794E-3</v>
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S152" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10632,39 +10632,39 @@
         <v>7</v>
       </c>
       <c r="H153" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I153" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J153" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K153" s="3"/>
       <c r="L153" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B153:$F153,$B$4:$F$4)</f>
         <v>11.567774709517325</v>
       </c>
       <c r="M153" s="17"/>
       <c r="N153" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B153:$F153,$B$4:$F$4)))</f>
         <v>0.99999053381114444</v>
       </c>
       <c r="O153" s="3"/>
       <c r="P153" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>9.0529713206396773E-5</v>
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S153" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10692,39 +10692,39 @@
         <v>7</v>
       </c>
       <c r="H154" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I154" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J154" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K154" s="3"/>
       <c r="L154" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B154:$F154,$B$4:$F$4)</f>
         <v>11.499989802907214</v>
       </c>
       <c r="M154" s="17"/>
       <c r="N154" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B154:$F154,$B$4:$F$4)))</f>
         <v>0.99998986990572314</v>
       </c>
       <c r="O154" s="3"/>
       <c r="P154" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>8.986586766519293E-5</v>
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S154" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10752,39 +10752,39 @@
         <v>7</v>
       </c>
       <c r="H155" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I155" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J155" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K155" s="3"/>
       <c r="L155" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B155:$F155,$B$4:$F$4)</f>
         <v>6.1959849182596454</v>
       </c>
       <c r="M155" s="17"/>
       <c r="N155" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B155:$F155,$B$4:$F$4)))</f>
         <v>0.9979665480061124</v>
       </c>
       <c r="O155" s="3"/>
       <c r="P155" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-1.9353235249266411E-3</v>
       </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S155" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10812,39 +10812,39 @@
         <v>7</v>
       </c>
       <c r="H156" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I156" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J156" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K156" s="3"/>
       <c r="L156" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B156:$F156,$B$4:$F$4)</f>
         <v>3.8793180828999638</v>
       </c>
       <c r="M156" s="17"/>
       <c r="N156" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B156:$F156,$B$4:$F$4)))</f>
         <v>0.97975348041324584</v>
       </c>
       <c r="O156" s="3"/>
       <c r="P156" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-2.0352228277623317E-2</v>
       </c>
       <c r="Q156" s="3"/>
       <c r="R156" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S156" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10872,39 +10872,39 @@
         <v>7</v>
       </c>
       <c r="H157" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I157" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J157" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K157" s="3"/>
       <c r="L157" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B157:$F157,$B$4:$F$4)</f>
         <v>3.832080015264963</v>
       </c>
       <c r="M157" s="17"/>
       <c r="N157" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B157:$F157,$B$4:$F$4)))</f>
         <v>0.97879489196673153</v>
       </c>
       <c r="O157" s="3"/>
       <c r="P157" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-2.1331004864303688E-2</v>
       </c>
       <c r="Q157" s="3"/>
       <c r="R157" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S157" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10932,39 +10932,39 @@
         <v>7</v>
       </c>
       <c r="H158" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I158" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J158" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K158" s="3"/>
       <c r="L158" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B158:$F158,$B$4:$F$4)</f>
         <v>7.740692863715072</v>
       </c>
       <c r="M158" s="17"/>
       <c r="N158" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B158:$F158,$B$4:$F$4)))</f>
         <v>0.99956541870883253</v>
       </c>
       <c r="O158" s="3"/>
       <c r="P158" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-3.3463727597567362E-4</v>
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S158" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -10992,39 +10992,39 @@
         <v>7</v>
       </c>
       <c r="H159" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I159" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J159" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K159" s="3"/>
       <c r="L159" s="17">
-        <f t="shared" si="31"/>
+        <f>SUMPRODUCT($B159:$F159,$B$4:$F$4)</f>
         <v>2.7250992861573433</v>
       </c>
       <c r="M159" s="17"/>
       <c r="N159" s="4">
-        <f t="shared" si="32"/>
+        <f>1/(1+EXP(-SUMPRODUCT($B159:$F159,$B$4:$F$4)))</f>
         <v>0.93849154986427852</v>
       </c>
       <c r="O159" s="3"/>
       <c r="P159" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>-6.3374878577029281E-2</v>
       </c>
       <c r="Q159" s="3"/>
       <c r="R159" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S159" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
@@ -11048,8 +11048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F157"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
